--- a/data/134/DEUSTATIS/old/New orders (value and volume index) in the main construction industry - 2001.xlsx
+++ b/data/134/DEUSTATIS/old/New orders (value and volume index) in the main construction industry - 2001.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:04:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:59:28</t>
   </si>
 </sst>
 </file>
@@ -31886,13 +31886,13 @@
         <v>91.4</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="I79" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="J79" t="n" s="10">
         <v>93.7</v>
@@ -31901,7 +31901,7 @@
         <v>97.0</v>
       </c>
       <c r="L79" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="M79" t="n" s="10">
         <v>93.0</v>
@@ -31910,16 +31910,16 @@
         <v>92.7</v>
       </c>
       <c r="O79" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="P79" t="n" s="10">
         <v>90.6</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>91.0</v>
@@ -31928,13 +31928,13 @@
         <v>87.4</v>
       </c>
       <c r="U79" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="V79" t="n" s="10">
         <v>87.1</v>
       </c>
       <c r="W79" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="X79" t="n" s="10">
         <v>88.3</v>
@@ -31943,7 +31943,7 @@
         <v>84.7</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="AA79" t="n" s="10">
         <v>86.4</v>
@@ -31964,7 +31964,7 @@
         <v>80.0</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="AH79" t="n" s="10">
         <v>82.0</v>
@@ -31973,25 +31973,25 @@
         <v>78.4</v>
       </c>
       <c r="AJ79" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="AK79" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AM79" t="n" s="10">
         <v>75.0</v>
       </c>
       <c r="AN79" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="AO79" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="AQ79" t="n" s="10">
         <v>75.8</v>
@@ -32015,37 +32015,37 @@
         <v>72.9</v>
       </c>
       <c r="AX79" t="n" s="10">
-        <v>70.2</v>
+        <v>70.1</v>
       </c>
       <c r="AY79" t="n" s="10">
-        <v>71.4</v>
+        <v>71.3</v>
       </c>
       <c r="AZ79" t="n" s="10">
         <v>71.5</v>
       </c>
       <c r="BA79" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="BB79" t="n" s="10">
         <v>72.5</v>
       </c>
       <c r="BC79" t="n" s="10">
-        <v>70.1</v>
+        <v>69.9</v>
       </c>
       <c r="BD79" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="BE79" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="BG79" t="n" s="10">
         <v>75.6</v>
       </c>
       <c r="BH79" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BI79" t="n" s="10">
         <v>74.8</v>
@@ -32060,16 +32060,16 @@
         <v>74.5</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="BO79" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>78.7</v>
@@ -32099,7 +32099,7 @@
         <v>82.5</v>
       </c>
       <c r="BZ79" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CA79" t="n" s="10">
         <v>83.4</v>
@@ -32108,7 +32108,7 @@
         <v>83.4</v>
       </c>
       <c r="CC79" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="CD79" t="n" s="10">
         <v>82.8</v>
@@ -32117,7 +32117,7 @@
         <v>82.3</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="CG79" t="n" s="10">
         <v>91.9</v>
@@ -32126,7 +32126,7 @@
         <v>86.7</v>
       </c>
       <c r="CI79" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CJ79" t="n" s="10">
         <v>88.8</v>
@@ -32135,34 +32135,34 @@
         <v>85.7</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>86.0</v>
+        <v>86.2</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="CN79" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CO79" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CP79" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="CQ79" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="CR79" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="CS79" t="n" s="10">
         <v>77.9</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="CU79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="CV79" t="n" s="10">
         <v>78.6</v>
@@ -32171,7 +32171,7 @@
         <v>76.4</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="CY79" t="n" s="10">
         <v>79.2</v>
@@ -32180,7 +32180,7 @@
         <v>79.9</v>
       </c>
       <c r="DA79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DB79" t="n" s="10">
         <v>78.8</v>
@@ -32210,13 +32210,13 @@
         <v>82.3</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="DL79" t="n" s="10">
         <v>78.6</v>
       </c>
       <c r="DM79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DN79" t="n" s="10">
         <v>78.9</v>
@@ -32231,10 +32231,10 @@
         <v>83.9</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="DT79" t="n" s="10">
         <v>82.8</v>
@@ -32249,10 +32249,10 @@
         <v>84.2</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DZ79" t="n" s="10">
         <v>88.3</v>
@@ -32323,7 +32323,7 @@
         <v>116.0</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>122.1</v>
+        <v>122.2</v>
       </c>
       <c r="S80" t="n" s="10">
         <v>115.4</v>
@@ -32356,10 +32356,10 @@
         <v>104.5</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="AE80" t="n" s="10">
         <v>100.8</v>
@@ -32368,13 +32368,13 @@
         <v>101.9</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AH80" t="n" s="10">
         <v>104.4</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AJ80" t="n" s="10">
         <v>98.7</v>
@@ -32386,7 +32386,7 @@
         <v>100.1</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AN80" t="n" s="10">
         <v>98.4</v>
@@ -32395,7 +32395,7 @@
         <v>101.6</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AQ80" t="n" s="10">
         <v>96.0</v>
@@ -32404,7 +32404,7 @@
         <v>91.6</v>
       </c>
       <c r="AS80" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AT80" t="n" s="10">
         <v>89.1</v>
@@ -32419,10 +32419,10 @@
         <v>91.0</v>
       </c>
       <c r="AX80" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="AY80" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="AZ80" t="n" s="10">
         <v>89.0</v>
@@ -32434,7 +32434,7 @@
         <v>89.7</v>
       </c>
       <c r="BC80" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="BD80" t="n" s="10">
         <v>90.7</v>
@@ -32461,22 +32461,22 @@
         <v>96.5</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="BM80" t="n" s="10">
         <v>94.7</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BP80" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="BQ80" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="BR80" t="n" s="10">
         <v>95.1</v>
@@ -32503,10 +32503,10 @@
         <v>96.9</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="CA80" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="CB80" t="n" s="10">
         <v>96.8</v>
@@ -32521,28 +32521,28 @@
         <v>95.0</v>
       </c>
       <c r="CF80" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="CG80" t="n" s="10">
         <v>114.0</v>
       </c>
       <c r="CH80" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="CI80" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="CJ80" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CK80" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="CN80" t="n" s="10">
         <v>93.3</v>
@@ -32554,7 +32554,7 @@
         <v>95.7</v>
       </c>
       <c r="CQ80" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="CR80" t="n" s="10">
         <v>92.9</v>
@@ -32563,7 +32563,7 @@
         <v>89.7</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="CU80" t="n" s="10">
         <v>86.5</v>
@@ -32572,7 +32572,7 @@
         <v>86.5</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CX80" t="n" s="10">
         <v>83.0</v>
@@ -32584,7 +32584,7 @@
         <v>88.4</v>
       </c>
       <c r="DA80" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="DB80" t="n" s="10">
         <v>87.0</v>
@@ -32596,7 +32596,7 @@
         <v>87.9</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>89.0</v>
@@ -32611,7 +32611,7 @@
         <v>91.6</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DK80" t="n" s="10">
         <v>87.9</v>
@@ -32626,7 +32626,7 @@
         <v>86.6</v>
       </c>
       <c r="DO80" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>89.1</v>
@@ -32638,7 +32638,7 @@
         <v>87.7</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DT80" t="n" s="10">
         <v>89.7</v>
@@ -32647,25 +32647,25 @@
         <v>89.8</v>
       </c>
       <c r="DV80" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DW80" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="DY80" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="EA80" t="n" s="10">
         <v>90.1</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="EC80" t="n" s="10">
         <v>92.1</v>
@@ -32703,16 +32703,16 @@
         <v>102.5</v>
       </c>
       <c r="I81" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="J81" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="K81" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="L81" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="M81" t="n" s="10">
         <v>97.6</v>
@@ -32721,7 +32721,7 @@
         <v>95.2</v>
       </c>
       <c r="O81" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="P81" t="n" s="10">
         <v>89.4</v>
@@ -32730,13 +32730,13 @@
         <v>92.9</v>
       </c>
       <c r="R81" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="S81" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="T81" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="U81" t="n" s="10">
         <v>86.2</v>
@@ -32769,19 +32769,19 @@
         <v>73.1</v>
       </c>
       <c r="AE81" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="AF81" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="AG81" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AH81" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="AI81" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="AJ81" t="n" s="10">
         <v>75.2</v>
@@ -32790,10 +32790,10 @@
         <v>76.5</v>
       </c>
       <c r="AL81" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="AM81" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="AN81" t="n" s="10">
         <v>76.1</v>
@@ -32802,7 +32802,7 @@
         <v>80.7</v>
       </c>
       <c r="AP81" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="AQ81" t="n" s="10">
         <v>72.1</v>
@@ -32811,10 +32811,10 @@
         <v>69.7</v>
       </c>
       <c r="AS81" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AT81" t="n" s="10">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="AU81" t="n" s="10">
         <v>71.8</v>
@@ -32826,10 +32826,10 @@
         <v>70.1</v>
       </c>
       <c r="AX81" t="n" s="10">
-        <v>65.5</v>
+        <v>65.4</v>
       </c>
       <c r="AY81" t="n" s="10">
-        <v>67.9</v>
+        <v>67.8</v>
       </c>
       <c r="AZ81" t="n" s="10">
         <v>67.2</v>
@@ -32838,28 +32838,28 @@
         <v>63.4</v>
       </c>
       <c r="BB81" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="BC81" t="n" s="10">
-        <v>65.6</v>
+        <v>65.4</v>
       </c>
       <c r="BD81" t="n" s="10">
         <v>69.6</v>
       </c>
       <c r="BE81" t="n" s="10">
-        <v>69.8</v>
+        <v>69.7</v>
       </c>
       <c r="BF81" t="n" s="10">
         <v>68.0</v>
       </c>
       <c r="BG81" t="n" s="10">
-        <v>66.5</v>
+        <v>66.4</v>
       </c>
       <c r="BH81" t="n" s="10">
         <v>72.9</v>
       </c>
       <c r="BI81" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="BJ81" t="n" s="10">
         <v>73.9</v>
@@ -32868,31 +32868,31 @@
         <v>75.5</v>
       </c>
       <c r="BL81" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="BM81" t="n" s="10">
         <v>75.1</v>
       </c>
       <c r="BN81" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="BO81" t="n" s="10">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="BP81" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BQ81" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="BR81" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="BS81" t="n" s="10">
         <v>78.9</v>
       </c>
       <c r="BT81" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="BU81" t="n" s="10">
         <v>74.5</v>
@@ -32913,13 +32913,13 @@
         <v>81.1</v>
       </c>
       <c r="CA81" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="CB81" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="CC81" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="CD81" t="n" s="10">
         <v>82.9</v>
@@ -32928,16 +32928,16 @@
         <v>76.6</v>
       </c>
       <c r="CF81" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="CG81" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="CH81" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="CI81" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="CJ81" t="n" s="10">
         <v>85.3</v>
@@ -32946,10 +32946,10 @@
         <v>81.7</v>
       </c>
       <c r="CL81" t="n" s="10">
-        <v>81.9</v>
+        <v>82.1</v>
       </c>
       <c r="CM81" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CN81" t="n" s="10">
         <v>77.9</v>
@@ -32961,16 +32961,16 @@
         <v>77.3</v>
       </c>
       <c r="CQ81" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="CR81" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="CS81" t="n" s="10">
         <v>74.6</v>
       </c>
       <c r="CT81" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="CU81" t="n" s="10">
         <v>73.8</v>
@@ -32985,7 +32985,7 @@
         <v>68.1</v>
       </c>
       <c r="CY81" t="n" s="10">
-        <v>67.5</v>
+        <v>67.6</v>
       </c>
       <c r="CZ81" t="n" s="10">
         <v>72.2</v>
@@ -32994,7 +32994,7 @@
         <v>66.7</v>
       </c>
       <c r="DB81" t="n" s="10">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="DC81" t="n" s="10">
         <v>71.8</v>
@@ -33021,13 +33021,13 @@
         <v>75.0</v>
       </c>
       <c r="DK81" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="DL81" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="DM81" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="DN81" t="n" s="10">
         <v>76.2</v>
@@ -33039,13 +33039,13 @@
         <v>76.0</v>
       </c>
       <c r="DQ81" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="DR81" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="DS81" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="DT81" t="n" s="10">
         <v>80.3</v>
@@ -33054,28 +33054,28 @@
         <v>82.5</v>
       </c>
       <c r="DV81" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DW81" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="DX81" t="n" s="10">
-        <v>88.2</v>
+        <v>88.0</v>
       </c>
       <c r="DY81" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DZ81" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="EA81" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="EB81" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="EC81" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="ED81" t="n" s="10">
         <v>90.5</v>
@@ -33101,7 +33101,7 @@
         <v>118.4</v>
       </c>
       <c r="G82" t="n" s="10">
-        <v>128.0</v>
+        <v>128.1</v>
       </c>
       <c r="H82" t="n" s="10">
         <v>128.2</v>
@@ -33110,13 +33110,13 @@
         <v>130.8</v>
       </c>
       <c r="J82" t="n" s="10">
-        <v>122.9</v>
+        <v>123.0</v>
       </c>
       <c r="K82" t="n" s="10">
         <v>126.8</v>
       </c>
       <c r="L82" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="M82" t="n" s="10">
         <v>122.5</v>
@@ -33134,16 +33134,16 @@
         <v>116.7</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="S82" t="n" s="10">
         <v>111.2</v>
       </c>
       <c r="T82" t="n" s="10">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="U82" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="V82" t="n" s="10">
         <v>108.0</v>
@@ -33155,7 +33155,7 @@
         <v>106.6</v>
       </c>
       <c r="Y82" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="Z82" t="n" s="10">
         <v>101.3</v>
@@ -33179,13 +33179,13 @@
         <v>96.5</v>
       </c>
       <c r="AG82" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AH82" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="AI82" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="AJ82" t="n" s="10">
         <v>95.2</v>
@@ -33194,7 +33194,7 @@
         <v>96.7</v>
       </c>
       <c r="AL82" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="AM82" t="n" s="10">
         <v>88.5</v>
@@ -33206,7 +33206,7 @@
         <v>101.5</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="AQ82" t="n" s="10">
         <v>90.5</v>
@@ -33245,10 +33245,10 @@
         <v>89.1</v>
       </c>
       <c r="BC82" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="BD82" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BE82" t="n" s="10">
         <v>86.5</v>
@@ -33263,7 +33263,7 @@
         <v>90.4</v>
       </c>
       <c r="BI82" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="BJ82" t="n" s="10">
         <v>91.1</v>
@@ -33278,16 +33278,16 @@
         <v>91.9</v>
       </c>
       <c r="BN82" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="BO82" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="BP82" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BQ82" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="BR82" t="n" s="10">
         <v>90.7</v>
@@ -33314,7 +33314,7 @@
         <v>91.0</v>
       </c>
       <c r="BZ82" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="CA82" t="n" s="10">
         <v>90.5</v>
@@ -33323,7 +33323,7 @@
         <v>94.2</v>
       </c>
       <c r="CC82" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="CD82" t="n" s="10">
         <v>95.7</v>
@@ -33332,7 +33332,7 @@
         <v>88.7</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="CG82" t="n" s="10">
         <v>96.0</v>
@@ -33341,7 +33341,7 @@
         <v>87.4</v>
       </c>
       <c r="CI82" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="CJ82" t="n" s="10">
         <v>97.3</v>
@@ -33350,16 +33350,16 @@
         <v>92.7</v>
       </c>
       <c r="CL82" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="CM82" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="CN82" t="n" s="10">
         <v>87.1</v>
       </c>
       <c r="CO82" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="CP82" t="n" s="10">
         <v>86.2</v>
@@ -33380,10 +33380,10 @@
         <v>81.5</v>
       </c>
       <c r="CV82" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="CW82" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="CX82" t="n" s="10">
         <v>75.1</v>
@@ -33431,7 +33431,7 @@
         <v>78.4</v>
       </c>
       <c r="DM82" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="DN82" t="n" s="10">
         <v>83.8</v>
@@ -33446,10 +33446,10 @@
         <v>84.2</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="DT82" t="n" s="10">
         <v>87.2</v>
@@ -33464,22 +33464,22 @@
         <v>86.4</v>
       </c>
       <c r="DX82" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="DY82" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="DZ82" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="EA82" t="n" s="10">
         <v>85.4</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="EC82" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="ED82" t="n" s="10">
         <v>95.9</v>
@@ -33502,28 +33502,28 @@
         <v>92.2</v>
       </c>
       <c r="E83" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="F83" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="J83" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K83" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="M83" t="n" s="10">
         <v>81.0</v>
@@ -33532,25 +33532,25 @@
         <v>74.6</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="P83" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="Q83" t="n" s="10">
         <v>76.5</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>74.1</v>
+        <v>74.4</v>
       </c>
       <c r="S83" t="n" s="10">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="T83" t="n" s="10">
-        <v>74.9</v>
+        <v>75.2</v>
       </c>
       <c r="U83" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="V83" t="n" s="10">
         <v>71.5</v>
@@ -33565,7 +33565,7 @@
         <v>69.9</v>
       </c>
       <c r="Z83" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="AA83" t="n" s="10">
         <v>75.1</v>
@@ -33577,34 +33577,34 @@
         <v>67.5</v>
       </c>
       <c r="AD83" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="AE83" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="AF83" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>67.6</v>
+        <v>67.8</v>
       </c>
       <c r="AH83" t="n" s="10">
         <v>70.9</v>
       </c>
       <c r="AI83" t="n" s="10">
-        <v>69.2</v>
+        <v>69.4</v>
       </c>
       <c r="AJ83" t="n" s="10">
         <v>68.7</v>
       </c>
       <c r="AK83" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="AL83" t="n" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="AM83" t="n" s="10">
         <v>68.6</v>
-      </c>
-      <c r="AM83" t="n" s="10">
-        <v>68.5</v>
       </c>
       <c r="AN83" t="n" s="10">
         <v>64.3</v>
@@ -33613,91 +33613,91 @@
         <v>69.5</v>
       </c>
       <c r="AP83" t="n" s="10">
-        <v>64.0</v>
+        <v>63.8</v>
       </c>
       <c r="AQ83" t="n" s="10">
+        <v>64.4</v>
+      </c>
+      <c r="AR83" t="n" s="10">
+        <v>65.1</v>
+      </c>
+      <c r="AS83" t="n" s="10">
         <v>64.3</v>
-      </c>
-      <c r="AR83" t="n" s="10">
-        <v>65.0</v>
-      </c>
-      <c r="AS83" t="n" s="10">
-        <v>64.4</v>
       </c>
       <c r="AT83" t="n" s="10">
         <v>62.0</v>
       </c>
       <c r="AU83" t="n" s="10">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="AV83" t="n" s="10">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="AW83" t="n" s="10">
         <v>59.4</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>58.4</v>
+        <v>58.2</v>
       </c>
       <c r="AY83" t="n" s="10">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="AZ83" t="n" s="10">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="BA83" t="n" s="10">
         <v>57.1</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>59.9</v>
+        <v>60.1</v>
       </c>
       <c r="BC83" t="n" s="10">
-        <v>56.2</v>
+        <v>55.9</v>
       </c>
       <c r="BD83" t="n" s="10">
-        <v>58.9</v>
+        <v>59.0</v>
       </c>
       <c r="BE83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="BF83" t="n" s="10">
         <v>56.3</v>
       </c>
       <c r="BG83" t="n" s="10">
-        <v>58.0</v>
+        <v>57.9</v>
       </c>
       <c r="BH83" t="n" s="10">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="BI83" t="n" s="10">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="BJ83" t="n" s="10">
         <v>59.7</v>
       </c>
       <c r="BK83" t="n" s="10">
-        <v>61.0</v>
+        <v>60.8</v>
       </c>
       <c r="BL83" t="n" s="10">
-        <v>60.6</v>
+        <v>60.5</v>
       </c>
       <c r="BM83" t="n" s="10">
         <v>60.3</v>
       </c>
       <c r="BN83" t="n" s="10">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="BO83" t="n" s="10">
-        <v>62.5</v>
+        <v>62.7</v>
       </c>
       <c r="BP83" t="n" s="10">
-        <v>60.6</v>
+        <v>60.4</v>
       </c>
       <c r="BQ83" t="n" s="10">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="BR83" t="n" s="10">
-        <v>64.3</v>
+        <v>64.4</v>
       </c>
       <c r="BS83" t="n" s="10">
         <v>60.5</v>
@@ -33706,82 +33706,82 @@
         <v>61.0</v>
       </c>
       <c r="BU83" t="n" s="10">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="BV83" t="n" s="10">
         <v>60.2</v>
       </c>
       <c r="BW83" t="n" s="10">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="BX83" t="n" s="10">
         <v>59.2</v>
       </c>
       <c r="BY83" t="n" s="10">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="BZ83" t="n" s="10">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="CA83" t="n" s="10">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="CB83" t="n" s="10">
         <v>58.6</v>
       </c>
       <c r="CC83" t="n" s="10">
-        <v>57.9</v>
+        <v>58.0</v>
       </c>
       <c r="CD83" t="n" s="10">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="CE83" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="CG83" t="n" s="10">
         <v>57.2</v>
       </c>
       <c r="CH83" t="n" s="10">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="CI83" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="CJ83" t="n" s="10">
         <v>57.8</v>
       </c>
-      <c r="CJ83" t="n" s="10">
-        <v>57.9</v>
-      </c>
       <c r="CK83" t="n" s="10">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="CL83" t="n" s="10">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="CM83" t="n" s="10">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="CN83" t="n" s="10">
+        <v>54.6</v>
+      </c>
+      <c r="CO83" t="n" s="10">
         <v>54.5</v>
-      </c>
-      <c r="CO83" t="n" s="10">
-        <v>54.6</v>
       </c>
       <c r="CP83" t="n" s="10">
         <v>54.4</v>
       </c>
       <c r="CQ83" t="n" s="10">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="CR83" t="n" s="10">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="CS83" t="n" s="10">
         <v>52.9</v>
       </c>
       <c r="CT83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.9</v>
       </c>
       <c r="CU83" t="n" s="10">
         <v>51.7</v>
@@ -33793,16 +33793,16 @@
         <v>53.0</v>
       </c>
       <c r="CX83" t="n" s="10">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="CY83" t="n" s="10">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
       <c r="CZ83" t="n" s="10">
         <v>53.7</v>
       </c>
       <c r="DA83" t="n" s="10">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="DB83" t="n" s="10">
         <v>55.7</v>
@@ -33814,7 +33814,7 @@
         <v>53.4</v>
       </c>
       <c r="DE83" t="n" s="10">
-        <v>58.1</v>
+        <v>58.0</v>
       </c>
       <c r="DF83" t="n" s="10">
         <v>57.2</v>
@@ -33823,7 +33823,7 @@
         <v>58.0</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>56.0</v>
+        <v>56.1</v>
       </c>
       <c r="DI83" t="n" s="10">
         <v>57.1</v>
@@ -33832,13 +33832,13 @@
         <v>58.5</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="DN83" t="n" s="10">
         <v>60.2</v>
@@ -33853,46 +33853,46 @@
         <v>62.7</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>62.6</v>
+        <v>62.4</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>64.1</v>
+        <v>63.9</v>
       </c>
       <c r="DT83" t="n" s="10">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="DU83" t="n" s="10">
         <v>69.0</v>
       </c>
       <c r="DV83" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="DW83" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>78.1</v>
+        <v>77.7</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="EA83" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>70.5</v>
+        <v>70.3</v>
       </c>
       <c r="EC83" t="n" s="10">
-        <v>74.8</v>
+        <v>75.0</v>
       </c>
       <c r="ED83" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="84">
@@ -33903,79 +33903,79 @@
         <v>34</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>113.0</v>
+        <v>113.6</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>110.3</v>
+        <v>110.9</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>108.2</v>
+        <v>108.9</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>105.5</v>
+        <v>106.2</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>109.2</v>
+        <v>109.9</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>119.8</v>
+        <v>113.2</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>102.3</v>
+        <v>102.9</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>102.0</v>
+        <v>102.7</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>102.6</v>
+        <v>103.2</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>92.0</v>
+        <v>92.5</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>90.5</v>
+        <v>91.0</v>
       </c>
       <c r="P84" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="Q84" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="R84" t="n" s="10">
+        <v>92.1</v>
+      </c>
+      <c r="S84" t="n" s="10">
         <v>95.4</v>
       </c>
-      <c r="Q84" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="R84" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="S84" t="n" s="10">
-        <v>95.2</v>
-      </c>
       <c r="T84" t="n" s="10">
-        <v>92.8</v>
+        <v>93.1</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>91.9</v>
+        <v>88.6</v>
       </c>
       <c r="V84" t="n" s="10">
-        <v>88.7</v>
+        <v>89.0</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>90.3</v>
+        <v>90.6</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="Y84" t="n" s="10">
-        <v>86.7</v>
+        <v>87.0</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>94.2</v>
+        <v>94.4</v>
       </c>
       <c r="AA84" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="AB84" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="AC84" t="n" s="10">
         <v>84.0</v>
@@ -33996,7 +33996,7 @@
         <v>88.6</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="AJ84" t="n" s="10">
         <v>86.0</v>
@@ -34005,7 +34005,7 @@
         <v>88.6</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>85.4</v>
@@ -34020,13 +34020,13 @@
         <v>79.9</v>
       </c>
       <c r="AQ84" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="AR84" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="AS84" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="AT84" t="n" s="10">
         <v>76.4</v>
@@ -34044,7 +34044,7 @@
         <v>72.0</v>
       </c>
       <c r="AY84" t="n" s="10">
-        <v>70.0</v>
+        <v>69.9</v>
       </c>
       <c r="AZ84" t="n" s="10">
         <v>73.5</v>
@@ -34053,16 +34053,16 @@
         <v>70.3</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BC84" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="BE84" t="n" s="10">
-        <v>70.2</v>
+        <v>70.1</v>
       </c>
       <c r="BF84" t="n" s="10">
         <v>69.5</v>
@@ -34089,16 +34089,16 @@
         <v>73.8</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="BO84" t="n" s="10">
         <v>76.2</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="BQ84" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="BR84" t="n" s="10">
         <v>78.0</v>
@@ -34152,7 +34152,7 @@
         <v>61.7</v>
       </c>
       <c r="CI84" t="n" s="10">
-        <v>66.1</v>
+        <v>66.2</v>
       </c>
       <c r="CJ84" t="n" s="10">
         <v>66.1</v>
@@ -34257,7 +34257,7 @@
         <v>68.9</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="DS84" t="n" s="10">
         <v>70.0</v>
@@ -34290,7 +34290,7 @@
         <v>75.3</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="ED84" t="n" s="10">
         <v>83.4</v>
@@ -34313,19 +34313,19 @@
         <v>114.6</v>
       </c>
       <c r="E85" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="F85" t="n" s="10">
         <v>110.0</v>
       </c>
       <c r="G85" t="n" s="10">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>112.9</v>
+        <v>113.0</v>
       </c>
       <c r="J85" t="n" s="10">
         <v>107.9</v>
@@ -34334,16 +34334,16 @@
         <v>112.6</v>
       </c>
       <c r="L85" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="M85" t="n" s="10">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="N85" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="O85" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="P85" t="n" s="10">
         <v>96.3</v>
@@ -34352,16 +34352,16 @@
         <v>102.5</v>
       </c>
       <c r="R85" t="n" s="10">
-        <v>134.7</v>
+        <v>135.0</v>
       </c>
       <c r="S85" t="n" s="10">
-        <v>94.4</v>
+        <v>94.2</v>
       </c>
       <c r="T85" t="n" s="10">
-        <v>93.6</v>
+        <v>93.8</v>
       </c>
       <c r="U85" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="V85" t="n" s="10">
         <v>94.2</v>
@@ -34382,28 +34382,28 @@
         <v>93.7</v>
       </c>
       <c r="AB85" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="AC85" t="n" s="10">
         <v>79.5</v>
       </c>
       <c r="AD85" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="AE85" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AF85" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="AG85" t="n" s="10">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="AH85" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="AI85" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="AJ85" t="n" s="10">
         <v>79.3</v>
@@ -34412,25 +34412,25 @@
         <v>80.2</v>
       </c>
       <c r="AL85" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="AM85" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="AN85" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="AO85" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>72.2</v>
+        <v>72.0</v>
       </c>
       <c r="AQ85" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="AR85" t="n" s="10">
-        <v>72.9</v>
+        <v>73.0</v>
       </c>
       <c r="AS85" t="n" s="10">
         <v>75.6</v>
@@ -34442,16 +34442,16 @@
         <v>78.9</v>
       </c>
       <c r="AV85" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AW85" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="AX85" t="n" s="10">
-        <v>70.4</v>
+        <v>70.3</v>
       </c>
       <c r="AY85" t="n" s="10">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="AZ85" t="n" s="10">
         <v>72.4</v>
@@ -34460,16 +34460,16 @@
         <v>67.7</v>
       </c>
       <c r="BB85" t="n" s="10">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="BC85" t="n" s="10">
-        <v>72.0</v>
+        <v>71.8</v>
       </c>
       <c r="BD85" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="BE85" t="n" s="10">
-        <v>78.9</v>
+        <v>78.7</v>
       </c>
       <c r="BF85" t="n" s="10">
         <v>76.0</v>
@@ -34478,7 +34478,7 @@
         <v>72.3</v>
       </c>
       <c r="BH85" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="BI85" t="n" s="10">
         <v>78.5</v>
@@ -34487,28 +34487,28 @@
         <v>83.8</v>
       </c>
       <c r="BK85" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="BL85" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BM85" t="n" s="10">
         <v>85.4</v>
       </c>
       <c r="BN85" t="n" s="10">
-        <v>78.1</v>
+        <v>77.9</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>86.0</v>
+        <v>86.2</v>
       </c>
       <c r="BP85" t="n" s="10">
-        <v>84.4</v>
+        <v>84.2</v>
       </c>
       <c r="BQ85" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="BR85" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="BS85" t="n" s="10">
         <v>91.7</v>
@@ -34529,16 +34529,16 @@
         <v>89.4</v>
       </c>
       <c r="BY85" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="BZ85" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="CA85" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="CB85" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="CC85" t="n" s="10">
         <v>92.8</v>
@@ -34550,49 +34550,49 @@
         <v>89.4</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CG85" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="CH85" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CI85" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="CJ85" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CK85" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="CL85" t="n" s="10">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="CM85" t="n" s="10">
-        <v>107.9</v>
+        <v>107.7</v>
       </c>
       <c r="CN85" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="CO85" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="CP85" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="CQ85" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CR85" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="CS85" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="CT85" t="n" s="10">
-        <v>91.9</v>
+        <v>92.0</v>
       </c>
       <c r="CU85" t="n" s="10">
         <v>89.2</v>
@@ -34601,31 +34601,31 @@
         <v>82.6</v>
       </c>
       <c r="CW85" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="CX85" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="CY85" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="CZ85" t="n" s="10">
         <v>85.1</v>
       </c>
       <c r="DA85" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="DB85" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="DC85" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="DD85" t="n" s="10">
         <v>81.1</v>
       </c>
       <c r="DE85" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="DF85" t="n" s="10">
         <v>85.4</v>
@@ -34634,7 +34634,7 @@
         <v>86.6</v>
       </c>
       <c r="DH85" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="DI85" t="n" s="10">
         <v>86.0</v>
@@ -34643,13 +34643,13 @@
         <v>86.4</v>
       </c>
       <c r="DK85" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="DL85" t="n" s="10">
+        <v>80.9</v>
+      </c>
+      <c r="DM85" t="n" s="10">
         <v>87.2</v>
-      </c>
-      <c r="DL85" t="n" s="10">
-        <v>80.8</v>
-      </c>
-      <c r="DM85" t="n" s="10">
-        <v>87.3</v>
       </c>
       <c r="DN85" t="n" s="10">
         <v>87.4</v>
@@ -34664,10 +34664,10 @@
         <v>87.1</v>
       </c>
       <c r="DR85" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>81.8</v>
+        <v>81.6</v>
       </c>
       <c r="DT85" t="n" s="10">
         <v>89.7</v>
@@ -34676,34 +34676,34 @@
         <v>92.0</v>
       </c>
       <c r="DV85" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="DW85" t="n" s="10">
         <v>86.5</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>95.2</v>
+        <v>95.0</v>
       </c>
       <c r="DY85" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="EA85" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="EB85" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="ED85" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="EE85" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="86">
@@ -34714,70 +34714,70 @@
         <v>34</v>
       </c>
       <c r="D86" t="n" s="10">
-        <v>143.6</v>
+        <v>143.8</v>
       </c>
       <c r="E86" t="n" s="10">
-        <v>131.6</v>
+        <v>131.8</v>
       </c>
       <c r="F86" t="n" s="10">
-        <v>138.1</v>
+        <v>138.2</v>
       </c>
       <c r="G86" t="n" s="10">
+        <v>142.3</v>
+      </c>
+      <c r="H86" t="n" s="10">
+        <v>139.9</v>
+      </c>
+      <c r="I86" t="n" s="10">
+        <v>142.1</v>
+      </c>
+      <c r="J86" t="n" s="10">
+        <v>135.9</v>
+      </c>
+      <c r="K86" t="n" s="10">
         <v>142.0</v>
       </c>
-      <c r="H86" t="n" s="10">
-        <v>142.1</v>
-      </c>
-      <c r="I86" t="n" s="10">
-        <v>141.8</v>
-      </c>
-      <c r="J86" t="n" s="10">
-        <v>135.5</v>
-      </c>
-      <c r="K86" t="n" s="10">
-        <v>141.8</v>
-      </c>
       <c r="L86" t="n" s="10">
-        <v>130.2</v>
+        <v>130.5</v>
       </c>
       <c r="M86" t="n" s="10">
-        <v>136.1</v>
+        <v>136.3</v>
       </c>
       <c r="N86" t="n" s="10">
-        <v>136.5</v>
+        <v>136.6</v>
       </c>
       <c r="O86" t="n" s="10">
-        <v>123.4</v>
+        <v>123.6</v>
       </c>
       <c r="P86" t="n" s="10">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="Q86" t="n" s="10">
         <v>129.5</v>
       </c>
       <c r="R86" t="n" s="10">
-        <v>170.1</v>
+        <v>170.2</v>
       </c>
       <c r="S86" t="n" s="10">
-        <v>119.8</v>
+        <v>119.6</v>
       </c>
       <c r="T86" t="n" s="10">
-        <v>118.4</v>
+        <v>118.5</v>
       </c>
       <c r="U86" t="n" s="10">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="V86" t="n" s="10">
-        <v>119.4</v>
+        <v>119.3</v>
       </c>
       <c r="W86" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="X86" t="n" s="10">
         <v>117.7</v>
       </c>
       <c r="Y86" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="Z86" t="n" s="10">
         <v>105.1</v>
@@ -34792,31 +34792,31 @@
         <v>100.7</v>
       </c>
       <c r="AD86" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AE86" t="n" s="10">
         <v>105.2</v>
       </c>
       <c r="AF86" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AG86" t="n" s="10">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AH86" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AI86" t="n" s="10">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AJ86" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="AK86" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="AL86" t="n" s="10">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AM86" t="n" s="10">
         <v>90.8</v>
@@ -34828,13 +34828,13 @@
         <v>112.2</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="AR86" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="AS86" t="n" s="10">
         <v>94.7</v>
@@ -34843,76 +34843,76 @@
         <v>94.8</v>
       </c>
       <c r="AU86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="AV86" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="AW86" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="AX86" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="AY86" t="n" s="10">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="AZ86" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BA86" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BB86" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>88.9</v>
+        <v>88.7</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="BE86" t="n" s="10">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="BF86" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BG86" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="BH86" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="BI86" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="BJ86" t="n" s="10">
         <v>103.2</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="BL86" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="BM86" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="BN86" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BO86" t="n" s="10">
-        <v>104.8</v>
+        <v>105.0</v>
       </c>
       <c r="BP86" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="BQ86" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BR86" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="BS86" t="n" s="10">
         <v>110.1</v>
@@ -34933,19 +34933,19 @@
         <v>105.4</v>
       </c>
       <c r="BY86" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="BZ86" t="n" s="10">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="CA86" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="CB86" t="n" s="10">
         <v>112.3</v>
       </c>
       <c r="CC86" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="CD86" t="n" s="10">
         <v>117.5</v>
@@ -34954,49 +34954,49 @@
         <v>103.3</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="CG86" t="n" s="10">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="CH86" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="CI86" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="CJ86" t="n" s="10">
         <v>118.9</v>
       </c>
       <c r="CK86" t="n" s="10">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="CL86" t="n" s="10">
-        <v>110.6</v>
+        <v>111.0</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>121.5</v>
+        <v>121.2</v>
       </c>
       <c r="CN86" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="CO86" t="n" s="10">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="CP86" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CQ86" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="CR86" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="CS86" t="n" s="10">
         <v>98.4</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="CU86" t="n" s="10">
         <v>98.0</v>
@@ -35008,22 +35008,22 @@
         <v>88.4</v>
       </c>
       <c r="CX86" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="CY86" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="CZ86" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="DA86" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="DB86" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DC86" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DD86" t="n" s="10">
         <v>90.2</v>
@@ -35038,28 +35038,28 @@
         <v>95.8</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>88.9</v>
+        <v>89.1</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DN86" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DP86" t="n" s="10">
         <v>89.6</v>
@@ -35068,10 +35068,10 @@
         <v>94.9</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="DT86" t="n" s="10">
         <v>97.0</v>
@@ -35080,34 +35080,34 @@
         <v>98.7</v>
       </c>
       <c r="DV86" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DW86" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="DY86" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>99.1</v>
+        <v>98.9</v>
       </c>
       <c r="EC86" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="ED86" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="EE86" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="87">
@@ -35124,28 +35124,28 @@
         <v>117.3</v>
       </c>
       <c r="E87" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="F87" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="G87" t="n" s="10">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="H87" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="I87" t="n" s="10">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="J87" t="n" s="10">
         <v>108.0</v>
       </c>
       <c r="K87" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="L87" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="M87" t="n" s="10">
         <v>103.8</v>
@@ -35154,25 +35154,25 @@
         <v>108.6</v>
       </c>
       <c r="O87" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="P87" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="Q87" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>136.2</v>
+        <v>136.6</v>
       </c>
       <c r="S87" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="T87" t="n" s="10">
-        <v>92.9</v>
+        <v>93.1</v>
       </c>
       <c r="U87" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="V87" t="n" s="10">
         <v>92.9</v>
@@ -35190,40 +35190,40 @@
         <v>79.7</v>
       </c>
       <c r="AA87" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="AB87" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="AC87" t="n" s="10">
         <v>77.2</v>
       </c>
       <c r="AD87" t="n" s="10">
-        <v>82.0</v>
+        <v>82.2</v>
       </c>
       <c r="AE87" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="AF87" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AG87" t="n" s="10">
-        <v>77.6</v>
+        <v>77.8</v>
       </c>
       <c r="AH87" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="AI87" t="n" s="10">
-        <v>77.9</v>
+        <v>78.1</v>
       </c>
       <c r="AJ87" t="n" s="10">
         <v>76.3</v>
       </c>
       <c r="AK87" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="AL87" t="n" s="10">
-        <v>82.2</v>
+        <v>82.4</v>
       </c>
       <c r="AM87" t="n" s="10">
         <v>67.3</v>
@@ -35235,7 +35235,7 @@
         <v>86.0</v>
       </c>
       <c r="AP87" t="n" s="10">
-        <v>67.1</v>
+        <v>66.8</v>
       </c>
       <c r="AQ87" t="n" s="10">
         <v>74.2</v>
@@ -35253,16 +35253,16 @@
         <v>76.0</v>
       </c>
       <c r="AV87" t="n" s="10">
-        <v>68.2</v>
+        <v>68.1</v>
       </c>
       <c r="AW87" t="n" s="10">
         <v>74.7</v>
       </c>
       <c r="AX87" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="AY87" t="n" s="10">
-        <v>73.0</v>
+        <v>72.8</v>
       </c>
       <c r="AZ87" t="n" s="10">
         <v>68.5</v>
@@ -35271,34 +35271,34 @@
         <v>65.3</v>
       </c>
       <c r="BB87" t="n" s="10">
-        <v>81.1</v>
+        <v>81.3</v>
       </c>
       <c r="BC87" t="n" s="10">
-        <v>70.6</v>
+        <v>70.4</v>
       </c>
       <c r="BD87" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BE87" t="n" s="10">
-        <v>77.2</v>
+        <v>77.0</v>
       </c>
       <c r="BF87" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="BG87" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="BH87" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="BI87" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="BJ87" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="BK87" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="BL87" t="n" s="10">
         <v>77.0</v>
@@ -35307,19 +35307,19 @@
         <v>82.6</v>
       </c>
       <c r="BN87" t="n" s="10">
-        <v>77.1</v>
+        <v>76.9</v>
       </c>
       <c r="BO87" t="n" s="10">
-        <v>83.4</v>
+        <v>83.7</v>
       </c>
       <c r="BP87" t="n" s="10">
-        <v>86.1</v>
+        <v>85.9</v>
       </c>
       <c r="BQ87" t="n" s="10">
-        <v>79.1</v>
+        <v>79.3</v>
       </c>
       <c r="BR87" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BS87" t="n" s="10">
         <v>94.0</v>
@@ -35340,94 +35340,94 @@
         <v>89.9</v>
       </c>
       <c r="BY87" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="BZ87" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="CA87" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="CB87" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="CC87" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="CD87" t="n" s="10">
         <v>105.2</v>
       </c>
       <c r="CE87" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="CF87" t="n" s="10">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="CG87" t="n" s="10">
         <v>103.3</v>
       </c>
       <c r="CH87" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="CI87" t="n" s="10">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="CJ87" t="n" s="10">
         <v>106.1</v>
       </c>
       <c r="CK87" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="CL87" t="n" s="10">
-        <v>96.0</v>
+        <v>96.4</v>
       </c>
       <c r="CM87" t="n" s="10">
-        <v>110.0</v>
+        <v>109.7</v>
       </c>
       <c r="CN87" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="CO87" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="CP87" t="n" s="10">
         <v>91.7</v>
       </c>
       <c r="CQ87" t="n" s="10">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="CR87" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="CS87" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="CT87" t="n" s="10">
-        <v>91.2</v>
+        <v>91.4</v>
       </c>
       <c r="CU87" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="CV87" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="CW87" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="CX87" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="CY87" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="CZ87" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="DA87" t="n" s="10">
-        <v>68.0</v>
+        <v>68.1</v>
       </c>
       <c r="DB87" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="DC87" t="n" s="10">
         <v>78.7</v>
@@ -35436,16 +35436,16 @@
         <v>75.2</v>
       </c>
       <c r="DE87" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="DF87" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DG87" t="n" s="10">
         <v>81.0</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="DI87" t="n" s="10">
         <v>78.8</v>
@@ -35454,13 +35454,13 @@
         <v>81.8</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="DM87" t="n" s="10">
-        <v>84.3</v>
+        <v>84.1</v>
       </c>
       <c r="DN87" t="n" s="10">
         <v>84.1</v>
@@ -35475,46 +35475,46 @@
         <v>82.5</v>
       </c>
       <c r="DR87" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="DS87" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DT87" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="DU87" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="DV87" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DW87" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>93.6</v>
+        <v>93.3</v>
       </c>
       <c r="DY87" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="DZ87" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="EC87" t="n" s="10">
-        <v>91.2</v>
+        <v>91.4</v>
       </c>
       <c r="ED87" t="n" s="10">
         <v>97.4</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="88">
@@ -35980,7 +35980,7 @@
         <v>105.0</v>
       </c>
       <c r="T89" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="U89" t="n" s="10">
         <v>107.7</v>
@@ -36064,7 +36064,7 @@
         <v>89.9</v>
       </c>
       <c r="AV89" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="AW89" t="n" s="10">
         <v>87.9</v>
@@ -36085,7 +36085,7 @@
         <v>82.0</v>
       </c>
       <c r="BC89" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="BD89" t="n" s="10">
         <v>89.9</v>
@@ -36121,10 +36121,10 @@
         <v>86.6</v>
       </c>
       <c r="BO89" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BP89" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="BQ89" t="n" s="10">
         <v>93.0</v>
@@ -36142,7 +36142,7 @@
         <v>82.6</v>
       </c>
       <c r="BV89" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="BW89" t="n" s="10">
         <v>78.5</v>
@@ -36175,7 +36175,7 @@
         <v>90.0</v>
       </c>
       <c r="CG89" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CH89" t="n" s="10">
         <v>95.1</v>
@@ -36184,7 +36184,7 @@
         <v>99.9</v>
       </c>
       <c r="CJ89" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="CK89" t="n" s="10">
         <v>98.2</v>
@@ -36229,7 +36229,7 @@
         <v>87.4</v>
       </c>
       <c r="CY89" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CZ89" t="n" s="10">
         <v>105.0</v>
@@ -36271,7 +36271,7 @@
         <v>97.2</v>
       </c>
       <c r="DM89" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="DN89" t="n" s="10">
         <v>99.6</v>
@@ -36304,7 +36304,7 @@
         <v>90.6</v>
       </c>
       <c r="DX89" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DY89" t="n" s="10">
         <v>105.9</v>
@@ -36767,7 +36767,7 @@
         <v>92.1</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="M91" t="n" s="10">
         <v>87.5</v>
@@ -36779,13 +36779,13 @@
         <v>89.2</v>
       </c>
       <c r="P91" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="Q91" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="R91" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="S91" t="n" s="10">
         <v>94.0</v>
@@ -36824,16 +36824,16 @@
         <v>83.4</v>
       </c>
       <c r="AE91" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="AF91" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="AG91" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="AH91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="AI91" t="n" s="10">
         <v>81.4</v>
@@ -36842,10 +36842,10 @@
         <v>80.0</v>
       </c>
       <c r="AK91" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="AL91" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="AM91" t="n" s="10">
         <v>80.7</v>
@@ -36857,7 +36857,7 @@
         <v>79.6</v>
       </c>
       <c r="AP91" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AQ91" t="n" s="10">
         <v>80.1</v>
@@ -36881,10 +36881,10 @@
         <v>76.1</v>
       </c>
       <c r="AX91" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="AY91" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="AZ91" t="n" s="10">
         <v>76.5</v>
@@ -36893,22 +36893,22 @@
         <v>74.6</v>
       </c>
       <c r="BB91" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="BC91" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BD91" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BE91" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BF91" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BG91" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BH91" t="n" s="10">
         <v>78.2</v>
@@ -36929,19 +36929,19 @@
         <v>79.5</v>
       </c>
       <c r="BN91" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BO91" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="BP91" t="n" s="10">
         <v>83.1</v>
       </c>
       <c r="BQ91" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="BR91" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="BS91" t="n" s="10">
         <v>80.2</v>
@@ -36983,7 +36983,7 @@
         <v>88.6</v>
       </c>
       <c r="CF91" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="CG91" t="n" s="10">
         <v>101.6</v>
@@ -37001,22 +37001,22 @@
         <v>90.1</v>
       </c>
       <c r="CL91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="CM91" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="CN91" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="CO91" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CP91" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="CQ91" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="CR91" t="n" s="10">
         <v>85.8</v>
@@ -37025,7 +37025,7 @@
         <v>81.7</v>
       </c>
       <c r="CT91" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CU91" t="n" s="10">
         <v>84.2</v>
@@ -37037,10 +37037,10 @@
         <v>85.2</v>
       </c>
       <c r="CX91" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CY91" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="CZ91" t="n" s="10">
         <v>88.8</v>
@@ -37052,7 +37052,7 @@
         <v>88.6</v>
       </c>
       <c r="DC91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DD91" t="n" s="10">
         <v>89.7</v>
@@ -37067,7 +37067,7 @@
         <v>93.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DI91" t="n" s="10">
         <v>92.7</v>
@@ -37076,31 +37076,31 @@
         <v>90.6</v>
       </c>
       <c r="DK91" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="DL91" t="n" s="10">
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DN91" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DQ91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="DR91" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>85.6</v>
@@ -37115,16 +37115,16 @@
         <v>88.8</v>
       </c>
       <c r="DX91" t="n" s="10">
-        <v>85.9</v>
+        <v>85.7</v>
       </c>
       <c r="DY91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DZ91" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="EA91" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="EB91" t="n" s="10">
         <v>90.7</v>
@@ -37136,7 +37136,7 @@
         <v>92.9</v>
       </c>
       <c r="EE91" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="92">
@@ -37207,10 +37207,10 @@
         <v>113.0</v>
       </c>
       <c r="X92" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="Y92" t="n" s="10">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="Z92" t="n" s="10">
         <v>113.2</v>
@@ -37267,7 +37267,7 @@
         <v>102.3</v>
       </c>
       <c r="AR92" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AS92" t="n" s="10">
         <v>98.8</v>
@@ -37285,10 +37285,10 @@
         <v>96.0</v>
       </c>
       <c r="AX92" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="AY92" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AZ92" t="n" s="10">
         <v>95.9</v>
@@ -37300,7 +37300,7 @@
         <v>90.4</v>
       </c>
       <c r="BC92" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="BD92" t="n" s="10">
         <v>96.2</v>
@@ -37369,7 +37369,7 @@
         <v>103.5</v>
       </c>
       <c r="BZ92" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="CA92" t="n" s="10">
         <v>104.5</v>
@@ -37381,7 +37381,7 @@
         <v>99.4</v>
       </c>
       <c r="CD92" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="CE92" t="n" s="10">
         <v>100.9</v>
@@ -37390,13 +37390,13 @@
         <v>104.5</v>
       </c>
       <c r="CG92" t="n" s="10">
-        <v>130.6</v>
+        <v>130.5</v>
       </c>
       <c r="CH92" t="n" s="10">
         <v>121.0</v>
       </c>
       <c r="CI92" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="CJ92" t="n" s="10">
         <v>104.8</v>
@@ -37405,7 +37405,7 @@
         <v>101.4</v>
       </c>
       <c r="CL92" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CM92" t="n" s="10">
         <v>96.0</v>
@@ -37456,7 +37456,7 @@
         <v>97.4</v>
       </c>
       <c r="DC92" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="DD92" t="n" s="10">
         <v>99.6</v>
@@ -37465,7 +37465,7 @@
         <v>98.6</v>
       </c>
       <c r="DF92" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DG92" t="n" s="10">
         <v>103.0</v>
@@ -37504,7 +37504,7 @@
         <v>95.1</v>
       </c>
       <c r="DS92" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DT92" t="n" s="10">
         <v>92.6</v>
@@ -37522,10 +37522,10 @@
         <v>92.3</v>
       </c>
       <c r="DY92" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="DZ92" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="EA92" t="n" s="10">
         <v>95.9</v>
@@ -37557,55 +37557,55 @@
         <v>79.9</v>
       </c>
       <c r="E93" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="F93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="G93" t="n" s="10">
-        <v>86.0</v>
+        <v>86.2</v>
       </c>
       <c r="H93" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>87.1</v>
+        <v>87.3</v>
       </c>
       <c r="J93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="K93" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="L93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.8</v>
       </c>
       <c r="M93" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="N93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="P93" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="Q93" t="n" s="10">
         <v>88.6</v>
       </c>
       <c r="R93" t="n" s="10">
-        <v>83.3</v>
+        <v>83.6</v>
       </c>
       <c r="S93" t="n" s="10">
-        <v>85.9</v>
+        <v>85.7</v>
       </c>
       <c r="T93" t="n" s="10">
-        <v>86.6</v>
+        <v>86.9</v>
       </c>
       <c r="U93" t="n" s="10">
-        <v>87.0</v>
+        <v>86.8</v>
       </c>
       <c r="V93" t="n" s="10">
         <v>82.0</v>
@@ -37620,10 +37620,10 @@
         <v>84.6</v>
       </c>
       <c r="Z93" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="AA93" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="AB93" t="n" s="10">
         <v>86.0</v>
@@ -37632,43 +37632,43 @@
         <v>81.5</v>
       </c>
       <c r="AD93" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AE93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AF93" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="AG93" t="n" s="10">
-        <v>77.9</v>
+        <v>78.2</v>
       </c>
       <c r="AH93" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="AI93" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="AJ93" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="AK93" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="AL93" t="n" s="10">
-        <v>76.2</v>
+        <v>76.4</v>
       </c>
       <c r="AM93" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="AN93" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="AO93" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="AP93" t="n" s="10">
-        <v>84.9</v>
+        <v>84.5</v>
       </c>
       <c r="AQ93" t="n" s="10">
         <v>79.8</v>
@@ -37677,7 +37677,7 @@
         <v>77.4</v>
       </c>
       <c r="AS93" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="AT93" t="n" s="10">
         <v>67.9</v>
@@ -37686,73 +37686,73 @@
         <v>72.7</v>
       </c>
       <c r="AV93" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="AW93" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="AX93" t="n" s="10">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="AY93" t="n" s="10">
-        <v>73.0</v>
+        <v>72.7</v>
       </c>
       <c r="AZ93" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BA93" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BB93" t="n" s="10">
-        <v>70.3</v>
+        <v>70.6</v>
       </c>
       <c r="BC93" t="n" s="10">
-        <v>75.1</v>
+        <v>74.7</v>
       </c>
       <c r="BD93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BE93" t="n" s="10">
-        <v>74.2</v>
+        <v>73.9</v>
       </c>
       <c r="BF93" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="BG93" t="n" s="10">
-        <v>86.1</v>
+        <v>85.9</v>
       </c>
       <c r="BH93" t="n" s="10">
-        <v>81.0</v>
+        <v>80.8</v>
       </c>
       <c r="BI93" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="BJ93" t="n" s="10">
         <v>78.3</v>
       </c>
       <c r="BK93" t="n" s="10">
-        <v>87.0</v>
+        <v>86.8</v>
       </c>
       <c r="BL93" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="BM93" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="BN93" t="n" s="10">
-        <v>83.0</v>
+        <v>82.8</v>
       </c>
       <c r="BO93" t="n" s="10">
-        <v>82.4</v>
+        <v>82.8</v>
       </c>
       <c r="BP93" t="n" s="10">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="BQ93" t="n" s="10">
-        <v>92.1</v>
+        <v>92.3</v>
       </c>
       <c r="BR93" t="n" s="10">
-        <v>85.4</v>
+        <v>84.7</v>
       </c>
       <c r="BS93" t="n" s="10">
         <v>82.3</v>
@@ -37764,106 +37764,106 @@
         <v>78.7</v>
       </c>
       <c r="BV93" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="BW93" t="n" s="10">
-        <v>82.0</v>
+        <v>82.2</v>
       </c>
       <c r="BX93" t="n" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="BY93" t="n" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="BZ93" t="n" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="CA93" t="n" s="10">
+        <v>91.2</v>
+      </c>
+      <c r="CB93" t="n" s="10">
+        <v>91.6</v>
+      </c>
+      <c r="CC93" t="n" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="CD93" t="n" s="10">
+        <v>88.9</v>
+      </c>
+      <c r="CE93" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="CF93" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="CG93" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="CH93" t="n" s="10">
         <v>88.4</v>
       </c>
-      <c r="BY93" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="BZ93" t="n" s="10">
-        <v>87.4</v>
-      </c>
-      <c r="CA93" t="n" s="10">
-        <v>90.8</v>
-      </c>
-      <c r="CB93" t="n" s="10">
-        <v>91.3</v>
-      </c>
-      <c r="CC93" t="n" s="10">
-        <v>82.7</v>
-      </c>
-      <c r="CD93" t="n" s="10">
-        <v>90.9</v>
-      </c>
-      <c r="CE93" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="CF93" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="CG93" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="CH93" t="n" s="10">
-        <v>88.3</v>
-      </c>
       <c r="CI93" t="n" s="10">
-        <v>98.5</v>
+        <v>98.9</v>
       </c>
       <c r="CJ93" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="CK93" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="CL93" t="n" s="10">
-        <v>95.7</v>
+        <v>96.4</v>
       </c>
       <c r="CM93" t="n" s="10">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
       <c r="CN93" t="n" s="10">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="CO93" t="n" s="10">
         <v>87.4</v>
       </c>
       <c r="CP93" t="n" s="10">
-        <v>139.1</v>
+        <v>137.3</v>
       </c>
       <c r="CQ93" t="n" s="10">
-        <v>81.9</v>
+        <v>82.3</v>
       </c>
       <c r="CR93" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="CS93" t="n" s="10">
-        <v>82.0</v>
+        <v>82.2</v>
       </c>
       <c r="CT93" t="n" s="10">
-        <v>92.1</v>
+        <v>92.5</v>
       </c>
       <c r="CU93" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="CV93" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="CW93" t="n" s="10">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="CX93" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="CY93" t="n" s="10">
-        <v>103.8</v>
+        <v>104.0</v>
       </c>
       <c r="CZ93" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="DA93" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="DB93" t="n" s="10">
-        <v>99.9</v>
+        <v>99.2</v>
       </c>
       <c r="DC93" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="DD93" t="n" s="10">
         <v>99.4</v>
@@ -37878,28 +37878,28 @@
         <v>100.9</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>92.7</v>
+        <v>92.9</v>
       </c>
       <c r="DI93" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="DM93" t="n" s="10">
-        <v>84.9</v>
+        <v>84.6</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DO93" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="DP93" t="n" s="10">
         <v>87.9</v>
@@ -37908,46 +37908,46 @@
         <v>87.9</v>
       </c>
       <c r="DR93" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="DS93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.1</v>
       </c>
       <c r="DT93" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DU93" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DV93" t="n" s="10">
-        <v>86.0</v>
+        <v>85.8</v>
       </c>
       <c r="DW93" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>86.3</v>
+        <v>85.8</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>85.1</v>
+        <v>85.3</v>
       </c>
       <c r="DZ93" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="EA93" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>95.0</v>
+        <v>94.8</v>
       </c>
       <c r="EC93" t="n" s="10">
-        <v>86.8</v>
+        <v>87.1</v>
       </c>
       <c r="ED93" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>92.2</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="94">
@@ -37973,16 +37973,16 @@
         <v>114.9</v>
       </c>
       <c r="I94" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="J94" t="n" s="10">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="K94" t="n" s="10">
         <v>114.0</v>
       </c>
       <c r="L94" t="n" s="10">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="M94" t="n" s="10">
         <v>110.8</v>
@@ -38000,7 +38000,7 @@
         <v>113.8</v>
       </c>
       <c r="R94" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="S94" t="n" s="10">
         <v>110.4</v>
@@ -38030,7 +38030,7 @@
         <v>107.0</v>
       </c>
       <c r="AB94" t="n" s="10">
-        <v>111.0</v>
+        <v>110.9</v>
       </c>
       <c r="AC94" t="n" s="10">
         <v>105.1</v>
@@ -38045,13 +38045,13 @@
         <v>99.4</v>
       </c>
       <c r="AG94" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AH94" t="n" s="10">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="AI94" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="AJ94" t="n" s="10">
         <v>97.2</v>
@@ -38072,16 +38072,16 @@
         <v>103.8</v>
       </c>
       <c r="AP94" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AQ94" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="AR94" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="AS94" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AT94" t="n" s="10">
         <v>88.0</v>
@@ -38096,10 +38096,10 @@
         <v>99.7</v>
       </c>
       <c r="AX94" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="AY94" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="AZ94" t="n" s="10">
         <v>98.0</v>
@@ -38108,13 +38108,13 @@
         <v>95.6</v>
       </c>
       <c r="BB94" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="BC94" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="BD94" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="BE94" t="n" s="10">
         <v>96.1</v>
@@ -38123,13 +38123,13 @@
         <v>108.5</v>
       </c>
       <c r="BG94" t="n" s="10">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="BH94" t="n" s="10">
         <v>104.8</v>
       </c>
       <c r="BI94" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="BJ94" t="n" s="10">
         <v>100.2</v>
@@ -38144,13 +38144,13 @@
         <v>103.9</v>
       </c>
       <c r="BN94" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="BO94" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="BP94" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="BQ94" t="n" s="10">
         <v>114.9</v>
@@ -38171,16 +38171,16 @@
         <v>113.0</v>
       </c>
       <c r="BW94" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="BX94" t="n" s="10">
         <v>107.6</v>
       </c>
       <c r="BY94" t="n" s="10">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="BZ94" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="CA94" t="n" s="10">
         <v>109.4</v>
@@ -38198,16 +38198,16 @@
         <v>113.8</v>
       </c>
       <c r="CF94" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="CG94" t="n" s="10">
         <v>125.8</v>
       </c>
       <c r="CH94" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="CI94" t="n" s="10">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="CJ94" t="n" s="10">
         <v>112.0</v>
@@ -38216,22 +38216,22 @@
         <v>110.8</v>
       </c>
       <c r="CL94" t="n" s="10">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="CM94" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="CN94" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="CO94" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CP94" t="n" s="10">
-        <v>160.7</v>
+        <v>160.6</v>
       </c>
       <c r="CQ94" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="CR94" t="n" s="10">
         <v>97.1</v>
@@ -38249,7 +38249,7 @@
         <v>103.5</v>
       </c>
       <c r="CW94" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="CX94" t="n" s="10">
         <v>106.5</v>
@@ -38279,7 +38279,7 @@
         <v>104.3</v>
       </c>
       <c r="DG94" t="n" s="10">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="DH94" t="n" s="10">
         <v>103.5</v>
@@ -38288,16 +38288,16 @@
         <v>106.9</v>
       </c>
       <c r="DJ94" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DK94" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DL94" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="DM94" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="DN94" t="n" s="10">
         <v>100.0</v>
@@ -38315,7 +38315,7 @@
         <v>100.7</v>
       </c>
       <c r="DS94" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DT94" t="n" s="10">
         <v>99.0</v>
@@ -38324,25 +38324,25 @@
         <v>94.3</v>
       </c>
       <c r="DV94" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DW94" t="n" s="10">
         <v>97.7</v>
       </c>
       <c r="DX94" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="DY94" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="DZ94" t="n" s="10">
         <v>98.7</v>
       </c>
       <c r="EA94" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="EC94" t="n" s="10">
         <v>93.8</v>
@@ -38386,7 +38386,7 @@
         <v>90.7</v>
       </c>
       <c r="K95" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="L95" t="n" s="10">
         <v>88.2</v>
@@ -38398,7 +38398,7 @@
         <v>94.0</v>
       </c>
       <c r="O95" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="P95" t="n" s="10">
         <v>95.6</v>
@@ -38407,7 +38407,7 @@
         <v>91.6</v>
       </c>
       <c r="R95" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="S95" t="n" s="10">
         <v>98.9</v>
@@ -38422,7 +38422,7 @@
         <v>92.3</v>
       </c>
       <c r="W95" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="X95" t="n" s="10">
         <v>95.3</v>
@@ -38443,7 +38443,7 @@
         <v>88.0</v>
       </c>
       <c r="AD95" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="AE95" t="n" s="10">
         <v>83.1</v>
@@ -38452,7 +38452,7 @@
         <v>88.4</v>
       </c>
       <c r="AG95" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="AH95" t="n" s="10">
         <v>87.5</v>
@@ -38467,7 +38467,7 @@
         <v>80.6</v>
       </c>
       <c r="AL95" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="AM95" t="n" s="10">
         <v>81.5</v>
@@ -38497,7 +38497,7 @@
         <v>72.9</v>
       </c>
       <c r="AV95" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="AW95" t="n" s="10">
         <v>75.4</v>
@@ -38524,7 +38524,7 @@
         <v>75.1</v>
       </c>
       <c r="BE95" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="BF95" t="n" s="10">
         <v>78.0</v>
@@ -38551,16 +38551,16 @@
         <v>77.8</v>
       </c>
       <c r="BN95" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="BO95" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BP95" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="BQ95" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BR95" t="n" s="10">
         <v>80.9</v>
@@ -38587,7 +38587,7 @@
         <v>87.5</v>
       </c>
       <c r="BZ95" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="CA95" t="n" s="10">
         <v>88.2</v>
@@ -38605,7 +38605,7 @@
         <v>83.1</v>
       </c>
       <c r="CF95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CG95" t="n" s="10">
         <v>97.3</v>
@@ -38614,7 +38614,7 @@
         <v>116.2</v>
       </c>
       <c r="CI95" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="CJ95" t="n" s="10">
         <v>89.1</v>
@@ -38626,7 +38626,7 @@
         <v>86.9</v>
       </c>
       <c r="CM95" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="CN95" t="n" s="10">
         <v>90.2</v>
@@ -38638,22 +38638,22 @@
         <v>84.0</v>
       </c>
       <c r="CQ95" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="CR95" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="CS95" t="n" s="10">
         <v>79.5</v>
       </c>
       <c r="CT95" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="CU95" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="CV95" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CW95" t="n" s="10">
         <v>80.5</v>
@@ -38713,7 +38713,7 @@
         <v>82.6</v>
       </c>
       <c r="DP95" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DQ95" t="n" s="10">
         <v>94.0</v>
@@ -38737,16 +38737,16 @@
         <v>88.8</v>
       </c>
       <c r="DX95" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DY95" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="DZ95" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="EA95" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="EB95" t="n" s="10">
         <v>88.3</v>
@@ -38841,7 +38841,7 @@
         <v>112.3</v>
       </c>
       <c r="AB96" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AC96" t="n" s="10">
         <v>112.0</v>
@@ -38850,7 +38850,7 @@
         <v>107.3</v>
       </c>
       <c r="AE96" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AF96" t="n" s="10">
         <v>113.1</v>
@@ -38883,7 +38883,7 @@
         <v>100.5</v>
       </c>
       <c r="AP96" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AQ96" t="n" s="10">
         <v>102.0</v>
@@ -38907,7 +38907,7 @@
         <v>93.8</v>
       </c>
       <c r="AX96" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="AY96" t="n" s="10">
         <v>94.8</v>
@@ -38922,13 +38922,13 @@
         <v>90.5</v>
       </c>
       <c r="BC96" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="BD96" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="BE96" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BF96" t="n" s="10">
         <v>95.5</v>
@@ -39105,7 +39105,7 @@
         <v>91.7</v>
       </c>
       <c r="DL96" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="DM96" t="n" s="10">
         <v>91.1</v>
@@ -39126,7 +39126,7 @@
         <v>91.8</v>
       </c>
       <c r="DS96" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DT96" t="n" s="10">
         <v>88.8</v>
@@ -39141,7 +39141,7 @@
         <v>94.0</v>
       </c>
       <c r="DX96" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="DY96" t="n" s="10">
         <v>94.3</v>
@@ -39188,7 +39188,7 @@
         <v>69.5</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>80.3</v>
@@ -39200,7 +39200,7 @@
         <v>74.7</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="M97" t="n" s="10">
         <v>74.8</v>
@@ -39218,13 +39218,13 @@
         <v>84.9</v>
       </c>
       <c r="R97" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="S97" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="T97" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="U97" t="n" s="10">
         <v>78.1</v>
@@ -39260,7 +39260,7 @@
         <v>74.9</v>
       </c>
       <c r="AF97" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="AG97" t="n" s="10">
         <v>80.4</v>
@@ -39278,7 +39278,7 @@
         <v>71.8</v>
       </c>
       <c r="AL97" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AM97" t="n" s="10">
         <v>69.0</v>
@@ -39290,7 +39290,7 @@
         <v>73.4</v>
       </c>
       <c r="AP97" t="n" s="10">
-        <v>68.2</v>
+        <v>68.1</v>
       </c>
       <c r="AQ97" t="n" s="10">
         <v>66.9</v>
@@ -39314,7 +39314,7 @@
         <v>64.3</v>
       </c>
       <c r="AX97" t="n" s="10">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="AY97" t="n" s="10">
         <v>69.1</v>
@@ -39341,7 +39341,7 @@
         <v>64.8</v>
       </c>
       <c r="BG97" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="BH97" t="n" s="10">
         <v>66.3</v>
@@ -39353,7 +39353,7 @@
         <v>69.8</v>
       </c>
       <c r="BK97" t="n" s="10">
-        <v>67.2</v>
+        <v>67.1</v>
       </c>
       <c r="BL97" t="n" s="10">
         <v>67.8</v>
@@ -39365,10 +39365,10 @@
         <v>71.1</v>
       </c>
       <c r="BO97" t="n" s="10">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="BP97" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="BQ97" t="n" s="10">
         <v>73.5</v>
@@ -39395,13 +39395,13 @@
         <v>77.8</v>
       </c>
       <c r="BY97" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="BZ97" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="CA97" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="CB97" t="n" s="10">
         <v>76.4</v>
@@ -39413,10 +39413,10 @@
         <v>75.8</v>
       </c>
       <c r="CE97" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="CF97" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="CG97" t="n" s="10">
         <v>75.2</v>
@@ -39425,19 +39425,19 @@
         <v>86.6</v>
       </c>
       <c r="CI97" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="CJ97" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="CK97" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="CL97" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="CM97" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="CN97" t="n" s="10">
         <v>81.3</v>
@@ -39479,7 +39479,7 @@
         <v>77.5</v>
       </c>
       <c r="DA97" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="DB97" t="n" s="10">
         <v>75.3</v>
@@ -39515,7 +39515,7 @@
         <v>84.4</v>
       </c>
       <c r="DM97" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="DN97" t="n" s="10">
         <v>83.8</v>
@@ -39548,10 +39548,10 @@
         <v>96.7</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DY97" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DZ97" t="n" s="10">
         <v>94.6</v>
@@ -39569,7 +39569,7 @@
         <v>97.1</v>
       </c>
       <c r="EE97" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="98">
@@ -40059,7 +40059,7 @@
         <v>96.8</v>
       </c>
       <c r="AB99" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC99" t="n" s="10">
         <v>106.5</v>
@@ -40089,7 +40089,7 @@
         <v>92.6</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="AM99" t="n" s="10">
         <v>97.8</v>
@@ -40128,7 +40128,7 @@
         <v>88.6</v>
       </c>
       <c r="AY99" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="AZ99" t="n" s="10">
         <v>89.1</v>
@@ -40182,7 +40182,7 @@
         <v>89.1</v>
       </c>
       <c r="BQ99" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="BR99" t="n" s="10">
         <v>82.1</v>
@@ -40197,7 +40197,7 @@
         <v>83.8</v>
       </c>
       <c r="BV99" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="BW99" t="n" s="10">
         <v>84.3</v>
@@ -40248,7 +40248,7 @@
         <v>96.2</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="CN99" t="n" s="10">
         <v>100.5</v>
@@ -40263,7 +40263,7 @@
         <v>93.4</v>
       </c>
       <c r="CR99" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="CS99" t="n" s="10">
         <v>89.2</v>
@@ -40326,7 +40326,7 @@
         <v>90.8</v>
       </c>
       <c r="DM99" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="DN99" t="n" s="10">
         <v>69.1</v>
@@ -40353,7 +40353,7 @@
         <v>72.4</v>
       </c>
       <c r="DV99" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="DW99" t="n" s="10">
         <v>78.3</v>
@@ -40362,7 +40362,7 @@
         <v>85.6</v>
       </c>
       <c r="DY99" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="DZ99" t="n" s="10">
         <v>99.7</v>
@@ -40833,7 +40833,7 @@
         <v>93.4</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="O102" t="n" s="10">
         <v>92.2</v>
@@ -40848,7 +40848,7 @@
         <v>90.6</v>
       </c>
       <c r="S102" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="T102" t="n" s="10">
         <v>89.3</v>
@@ -40875,7 +40875,7 @@
         <v>83.3</v>
       </c>
       <c r="AB102" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="AC102" t="n" s="10">
         <v>81.4</v>
@@ -40893,7 +40893,7 @@
         <v>79.6</v>
       </c>
       <c r="AH102" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="AI102" t="n" s="10">
         <v>78.9</v>
@@ -40944,7 +40944,7 @@
         <v>71.2</v>
       </c>
       <c r="AY102" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AZ102" t="n" s="10">
         <v>71.1</v>
@@ -40980,16 +40980,16 @@
         <v>75.8</v>
       </c>
       <c r="BK102" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="BL102" t="n" s="10">
         <v>76.6</v>
       </c>
       <c r="BM102" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BN102" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="BO102" t="n" s="10">
         <v>77.3</v>
@@ -41010,7 +41010,7 @@
         <v>78.9</v>
       </c>
       <c r="BU102" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="BV102" t="n" s="10">
         <v>79.8</v>
@@ -41037,7 +41037,7 @@
         <v>83.8</v>
       </c>
       <c r="CD102" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CE102" t="n" s="10">
         <v>84.8</v>
@@ -41055,13 +41055,13 @@
         <v>86.3</v>
       </c>
       <c r="CJ102" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="CK102" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="CL102" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="CM102" t="n" s="10">
         <v>85.7</v>
@@ -41097,7 +41097,7 @@
         <v>78.7</v>
       </c>
       <c r="CX102" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="CY102" t="n" s="10">
         <v>78.5</v>
@@ -41160,13 +41160,13 @@
         <v>81.6</v>
       </c>
       <c r="DS102" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="DT102" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="DU102" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DV102" t="n" s="10">
         <v>83.8</v>
@@ -41181,7 +41181,7 @@
         <v>85.8</v>
       </c>
       <c r="DZ102" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="EA102" t="n" s="10">
         <v>87.2</v>
@@ -41190,10 +41190,10 @@
         <v>87.9</v>
       </c>
       <c r="EC102" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>90.0</v>
@@ -41237,7 +41237,7 @@
         <v>117.9</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="O103" t="n" s="10">
         <v>116.5</v>
@@ -41261,7 +41261,7 @@
         <v>112.3</v>
       </c>
       <c r="V103" t="n" s="10">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="W103" t="n" s="10">
         <v>110.5</v>
@@ -41276,7 +41276,7 @@
         <v>106.9</v>
       </c>
       <c r="AA103" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AB103" t="n" s="10">
         <v>104.4</v>
@@ -41333,7 +41333,7 @@
         <v>92.7</v>
       </c>
       <c r="AT103" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="AU103" t="n" s="10">
         <v>90.7</v>
@@ -41384,7 +41384,7 @@
         <v>93.8</v>
       </c>
       <c r="BK103" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BL103" t="n" s="10">
         <v>94.5</v>
@@ -41414,7 +41414,7 @@
         <v>95.2</v>
       </c>
       <c r="BU103" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="BV103" t="n" s="10">
         <v>95.6</v>
@@ -41426,7 +41426,7 @@
         <v>95.8</v>
       </c>
       <c r="BY103" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="BZ103" t="n" s="10">
         <v>96.0</v>
@@ -41465,7 +41465,7 @@
         <v>97.2</v>
       </c>
       <c r="CL103" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="CM103" t="n" s="10">
         <v>96.1</v>
@@ -41546,7 +41546,7 @@
         <v>88.4</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DN103" t="n" s="10">
         <v>88.1</v>
@@ -41588,10 +41588,10 @@
         <v>92.2</v>
       </c>
       <c r="EA103" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="EB103" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="EC103" t="n" s="10">
         <v>94.0</v>
@@ -41632,7 +41632,7 @@
         <v>100.2</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="K104" t="n" s="10">
         <v>98.5</v>
@@ -41659,7 +41659,7 @@
         <v>90.6</v>
       </c>
       <c r="S104" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="T104" t="n" s="10">
         <v>88.2</v>
@@ -41695,10 +41695,10 @@
         <v>77.0</v>
       </c>
       <c r="AE104" t="n" s="10">
+        <v>76.7</v>
+      </c>
+      <c r="AF104" t="n" s="10">
         <v>76.6</v>
-      </c>
-      <c r="AF104" t="n" s="10">
-        <v>76.5</v>
       </c>
       <c r="AG104" t="n" s="10">
         <v>76.3</v>
@@ -41716,7 +41716,7 @@
         <v>75.3</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AM104" t="n" s="10">
         <v>74.5</v>
@@ -41746,7 +41746,7 @@
         <v>69.5</v>
       </c>
       <c r="AV104" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="AW104" t="n" s="10">
         <v>68.4</v>
@@ -41758,7 +41758,7 @@
         <v>67.6</v>
       </c>
       <c r="AZ104" t="n" s="10">
-        <v>67.6</v>
+        <v>67.5</v>
       </c>
       <c r="BA104" t="n" s="10">
         <v>67.6</v>
@@ -41770,10 +41770,10 @@
         <v>68.1</v>
       </c>
       <c r="BD104" t="n" s="10">
-        <v>68.4</v>
+        <v>68.3</v>
       </c>
       <c r="BE104" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="BF104" t="n" s="10">
         <v>69.2</v>
@@ -41782,7 +41782,7 @@
         <v>69.8</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="BI104" t="n" s="10">
         <v>71.3</v>
@@ -41797,7 +41797,7 @@
         <v>73.2</v>
       </c>
       <c r="BM104" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="BN104" t="n" s="10">
         <v>74.1</v>
@@ -41827,7 +41827,7 @@
         <v>77.0</v>
       </c>
       <c r="BW104" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="BX104" t="n" s="10">
         <v>77.8</v>
@@ -41845,7 +41845,7 @@
         <v>79.0</v>
       </c>
       <c r="CC104" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="CD104" t="n" s="10">
         <v>79.6</v>
@@ -41860,7 +41860,7 @@
         <v>80.2</v>
       </c>
       <c r="CH104" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="CI104" t="n" s="10">
         <v>80.8</v>
@@ -41899,7 +41899,7 @@
         <v>74.8</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="CV104" t="n" s="10">
         <v>72.3</v>
@@ -41956,19 +41956,19 @@
         <v>74.6</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="DO104" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="DQ104" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="DS104" t="n" s="10">
         <v>78.2</v>
@@ -41995,7 +41995,7 @@
         <v>83.9</v>
       </c>
       <c r="EA104" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="EB104" t="n" s="10">
         <v>85.4</v>
@@ -42039,7 +42039,7 @@
         <v>124.4</v>
       </c>
       <c r="K105" t="n" s="10">
-        <v>123.3</v>
+        <v>123.4</v>
       </c>
       <c r="L105" t="n" s="10">
         <v>122.3</v>
@@ -42048,13 +42048,13 @@
         <v>121.0</v>
       </c>
       <c r="N105" t="n" s="10">
-        <v>119.5</v>
+        <v>119.6</v>
       </c>
       <c r="O105" t="n" s="10">
         <v>118.0</v>
       </c>
       <c r="P105" t="n" s="10">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="Q105" t="n" s="10">
         <v>115.3</v>
@@ -42162,25 +42162,25 @@
         <v>83.6</v>
       </c>
       <c r="AZ105" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BA105" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="BB105" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BC105" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="BD105" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="BE105" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="BF105" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BG105" t="n" s="10">
         <v>86.2</v>
@@ -42195,10 +42195,10 @@
         <v>88.8</v>
       </c>
       <c r="BK105" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="BL105" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="BM105" t="n" s="10">
         <v>90.3</v>
@@ -42225,13 +42225,13 @@
         <v>91.1</v>
       </c>
       <c r="BU105" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="BV105" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="BW105" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="BX105" t="n" s="10">
         <v>91.7</v>
@@ -42240,7 +42240,7 @@
         <v>91.8</v>
       </c>
       <c r="BZ105" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CA105" t="n" s="10">
         <v>91.9</v>
@@ -42315,7 +42315,7 @@
         <v>78.0</v>
       </c>
       <c r="CY105" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="CZ105" t="n" s="10">
         <v>77.4</v>
@@ -42366,7 +42366,7 @@
         <v>83.0</v>
       </c>
       <c r="DP105" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="DQ105" t="n" s="10">
         <v>83.9</v>
@@ -42408,7 +42408,7 @@
         <v>91.5</v>
       </c>
       <c r="ED105" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="EE105" t="n" s="10">
         <v>92.7</v>
@@ -42425,13 +42425,13 @@
         <v>34</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="E106" t="n" s="10">
         <v>90.9</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="G106" t="n" s="10">
         <v>88.2</v>
@@ -42446,34 +42446,34 @@
         <v>84.5</v>
       </c>
       <c r="K106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="L106" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="S106" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="U106" t="n" s="10">
         <v>73.4</v>
@@ -42485,7 +42485,7 @@
         <v>73.0</v>
       </c>
       <c r="X106" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="Y106" t="n" s="10">
         <v>72.1</v>
@@ -42494,13 +42494,13 @@
         <v>71.6</v>
       </c>
       <c r="AA106" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="AB106" t="n" s="10">
         <v>70.3</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>69.7</v>
@@ -42512,22 +42512,22 @@
         <v>69.4</v>
       </c>
       <c r="AG106" t="n" s="10">
+        <v>69.4</v>
+      </c>
+      <c r="AH106" t="n" s="10">
         <v>69.3</v>
-      </c>
-      <c r="AH106" t="n" s="10">
-        <v>69.2</v>
       </c>
       <c r="AI106" t="n" s="10">
         <v>69.0</v>
       </c>
       <c r="AJ106" t="n" s="10">
-        <v>68.6</v>
+        <v>68.7</v>
       </c>
       <c r="AK106" t="n" s="10">
         <v>68.4</v>
       </c>
       <c r="AL106" t="n" s="10">
-        <v>68.0</v>
+        <v>68.1</v>
       </c>
       <c r="AM106" t="n" s="10">
         <v>67.6</v>
@@ -42548,7 +42548,7 @@
         <v>64.2</v>
       </c>
       <c r="AS106" t="n" s="10">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="AT106" t="n" s="10">
         <v>62.4</v>
@@ -42557,31 +42557,31 @@
         <v>61.6</v>
       </c>
       <c r="AV106" t="n" s="10">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="AX106" t="n" s="10">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="AY106" t="n" s="10">
-        <v>59.0</v>
+        <v>58.9</v>
       </c>
       <c r="AZ106" t="n" s="10">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="BA106" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="BB106" t="n" s="10">
         <v>57.8</v>
       </c>
       <c r="BC106" t="n" s="10">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>57.6</v>
+        <v>57.5</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>57.5</v>
@@ -42590,31 +42590,31 @@
         <v>57.6</v>
       </c>
       <c r="BG106" t="n" s="10">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="BH106" t="n" s="10">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="BI106" t="n" s="10">
         <v>58.7</v>
       </c>
       <c r="BJ106" t="n" s="10">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="BK106" t="n" s="10">
         <v>59.7</v>
       </c>
       <c r="BL106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="BM106" t="n" s="10">
         <v>60.5</v>
       </c>
       <c r="BN106" t="n" s="10">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="BO106" t="n" s="10">
-        <v>61.2</v>
+        <v>61.1</v>
       </c>
       <c r="BP106" t="n" s="10">
         <v>61.4</v>
@@ -42635,7 +42635,7 @@
         <v>60.6</v>
       </c>
       <c r="BV106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.3</v>
       </c>
       <c r="BW106" t="n" s="10">
         <v>59.9</v>
@@ -42653,25 +42653,25 @@
         <v>58.4</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>57.9</v>
       </c>
       <c r="CD106" t="n" s="10">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="CE106" t="n" s="10">
         <v>57.4</v>
       </c>
       <c r="CF106" t="n" s="10">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="CG106" t="n" s="10">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>56.3</v>
@@ -42698,7 +42698,7 @@
         <v>54.5</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>54.0</v>
@@ -42710,13 +42710,13 @@
         <v>53.6</v>
       </c>
       <c r="CU106" t="n" s="10">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="CV106" t="n" s="10">
         <v>53.6</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="CX106" t="n" s="10">
         <v>53.9</v>
@@ -42725,7 +42725,7 @@
         <v>54.1</v>
       </c>
       <c r="CZ106" t="n" s="10">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="DA106" t="n" s="10">
         <v>54.5</v>
@@ -42767,22 +42767,22 @@
         <v>59.6</v>
       </c>
       <c r="DN106" t="n" s="10">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
       <c r="DO106" t="n" s="10">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="DP106" t="n" s="10">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="DQ106" t="n" s="10">
-        <v>64.1</v>
+        <v>64.0</v>
       </c>
       <c r="DR106" t="n" s="10">
-        <v>65.2</v>
+        <v>65.1</v>
       </c>
       <c r="DS106" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="DT106" t="n" s="10">
         <v>67.5</v>
@@ -42791,10 +42791,10 @@
         <v>68.6</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>69.7</v>
+        <v>69.6</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>70.8</v>
+        <v>70.7</v>
       </c>
       <c r="DX106" t="n" s="10">
         <v>71.6</v>
@@ -42806,16 +42806,16 @@
         <v>73.2</v>
       </c>
       <c r="EA106" t="n" s="10">
-        <v>74.1</v>
+        <v>74.0</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>75.7</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="EE106" t="n" s="10">
         <v>77.2</v>
@@ -42829,67 +42829,67 @@
         <v>34</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>112.9</v>
+        <v>113.6</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>110.9</v>
+        <v>111.9</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>109.1</v>
+        <v>110.3</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>107.4</v>
+        <v>108.8</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>106.0</v>
+        <v>107.6</v>
       </c>
       <c r="I107" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="J107" t="n" s="10">
         <v>104.5</v>
       </c>
-      <c r="J107" t="n" s="10">
+      <c r="K107" t="n" s="10">
         <v>102.9</v>
       </c>
-      <c r="K107" t="n" s="10">
-        <v>101.5</v>
-      </c>
       <c r="L107" t="n" s="10">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="M107" t="n" s="10">
-        <v>98.4</v>
+        <v>99.4</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>96.6</v>
+        <v>97.4</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>95.2</v>
+        <v>95.8</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>94.0</v>
+        <v>94.4</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>93.1</v>
+        <v>93.3</v>
       </c>
       <c r="R107" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="S107" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="T107" t="n" s="10">
-        <v>91.9</v>
+        <v>91.7</v>
       </c>
       <c r="U107" t="n" s="10">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="V107" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="W107" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="X107" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="Y107" t="n" s="10">
         <v>89.7</v>
@@ -42976,7 +42976,7 @@
         <v>72.0</v>
       </c>
       <c r="BA107" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="BB107" t="n" s="10">
         <v>71.2</v>
@@ -42994,7 +42994,7 @@
         <v>71.1</v>
       </c>
       <c r="BG107" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="BH107" t="n" s="10">
         <v>71.9</v>
@@ -43036,10 +43036,10 @@
         <v>73.1</v>
       </c>
       <c r="BU107" t="n" s="10">
-        <v>72.4</v>
+        <v>72.5</v>
       </c>
       <c r="BV107" t="n" s="10">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="BW107" t="n" s="10">
         <v>71.0</v>
@@ -43072,7 +43072,7 @@
         <v>65.9</v>
       </c>
       <c r="CG107" t="n" s="10">
-        <v>65.2</v>
+        <v>65.3</v>
       </c>
       <c r="CH107" t="n" s="10">
         <v>64.8</v>
@@ -43129,7 +43129,7 @@
         <v>60.3</v>
       </c>
       <c r="CZ107" t="n" s="10">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="DA107" t="n" s="10">
         <v>60.9</v>
@@ -43177,7 +43177,7 @@
         <v>68.1</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="DQ107" t="n" s="10">
         <v>70.3</v>
@@ -43245,10 +43245,10 @@
         <v>110.9</v>
       </c>
       <c r="G108" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="H108" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="I108" t="n" s="10">
         <v>110.2</v>
@@ -43257,13 +43257,13 @@
         <v>109.4</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="L108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="N108" t="n" s="10">
         <v>104.2</v>
@@ -43293,7 +43293,7 @@
         <v>92.4</v>
       </c>
       <c r="W108" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="X108" t="n" s="10">
         <v>89.9</v>
@@ -43311,13 +43311,13 @@
         <v>85.0</v>
       </c>
       <c r="AC108" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="AD108" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="AE108" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="AF108" t="n" s="10">
         <v>81.6</v>
@@ -43329,7 +43329,7 @@
         <v>80.9</v>
       </c>
       <c r="AI108" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="AJ108" t="n" s="10">
         <v>80.4</v>
@@ -43341,7 +43341,7 @@
         <v>79.8</v>
       </c>
       <c r="AM108" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="AN108" t="n" s="10">
         <v>79.2</v>
@@ -43356,13 +43356,13 @@
         <v>77.2</v>
       </c>
       <c r="AR108" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="AS108" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="AT108" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="AU108" t="n" s="10">
         <v>75.0</v>
@@ -43377,25 +43377,25 @@
         <v>73.7</v>
       </c>
       <c r="AY108" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="AZ108" t="n" s="10">
         <v>73.8</v>
       </c>
       <c r="BA108" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BB108" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="BC108" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="BD108" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="BE108" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="BF108" t="n" s="10">
         <v>77.2</v>
@@ -43407,7 +43407,7 @@
         <v>79.1</v>
       </c>
       <c r="BI108" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="BJ108" t="n" s="10">
         <v>80.9</v>
@@ -43422,7 +43422,7 @@
         <v>82.8</v>
       </c>
       <c r="BN108" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BO108" t="n" s="10">
         <v>83.7</v>
@@ -43440,7 +43440,7 @@
         <v>85.9</v>
       </c>
       <c r="BT108" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="BU108" t="n" s="10">
         <v>87.5</v>
@@ -43449,7 +43449,7 @@
         <v>88.7</v>
       </c>
       <c r="BW108" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="BX108" t="n" s="10">
         <v>90.6</v>
@@ -43473,7 +43473,7 @@
         <v>94.9</v>
       </c>
       <c r="CE108" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="CF108" t="n" s="10">
         <v>95.8</v>
@@ -43512,13 +43512,13 @@
         <v>96.0</v>
       </c>
       <c r="CR108" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="CS108" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="CT108" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="CU108" t="n" s="10">
         <v>87.5</v>
@@ -43527,10 +43527,10 @@
         <v>85.3</v>
       </c>
       <c r="CW108" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="CX108" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="CY108" t="n" s="10">
         <v>81.3</v>
@@ -43584,31 +43584,31 @@
         <v>85.2</v>
       </c>
       <c r="DP108" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DQ108" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DR108" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="DS108" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DT108" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="DU108" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="DV108" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DW108" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="DX108" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DY108" t="n" s="10">
         <v>90.7</v>
@@ -43617,7 +43617,7 @@
         <v>91.3</v>
       </c>
       <c r="EA108" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="EB108" t="n" s="10">
         <v>92.8</v>
@@ -43640,34 +43640,34 @@
         <v>34</v>
       </c>
       <c r="D109" t="n" s="10">
-        <v>138.7</v>
+        <v>138.9</v>
       </c>
       <c r="E109" t="n" s="10">
         <v>139.2</v>
       </c>
       <c r="F109" t="n" s="10">
-        <v>139.4</v>
+        <v>139.3</v>
       </c>
       <c r="G109" t="n" s="10">
-        <v>139.6</v>
+        <v>139.5</v>
       </c>
       <c r="H109" t="n" s="10">
-        <v>139.5</v>
+        <v>139.3</v>
       </c>
       <c r="I109" t="n" s="10">
-        <v>138.8</v>
+        <v>138.7</v>
       </c>
       <c r="J109" t="n" s="10">
         <v>137.8</v>
       </c>
       <c r="K109" t="n" s="10">
-        <v>136.4</v>
+        <v>136.5</v>
       </c>
       <c r="L109" t="n" s="10">
-        <v>134.9</v>
+        <v>135.0</v>
       </c>
       <c r="M109" t="n" s="10">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="N109" t="n" s="10">
         <v>131.6</v>
@@ -43700,7 +43700,7 @@
         <v>115.5</v>
       </c>
       <c r="X109" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="Y109" t="n" s="10">
         <v>112.2</v>
@@ -43712,7 +43712,7 @@
         <v>109.4</v>
       </c>
       <c r="AB109" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AC109" t="n" s="10">
         <v>106.1</v>
@@ -43733,7 +43733,7 @@
         <v>102.7</v>
       </c>
       <c r="AI109" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AJ109" t="n" s="10">
         <v>102.1</v>
@@ -43745,7 +43745,7 @@
         <v>101.2</v>
       </c>
       <c r="AM109" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AN109" t="n" s="10">
         <v>100.2</v>
@@ -43766,16 +43766,16 @@
         <v>95.2</v>
       </c>
       <c r="AT109" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="AU109" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="AV109" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AW109" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="AX109" t="n" s="10">
         <v>91.4</v>
@@ -43790,16 +43790,16 @@
         <v>91.6</v>
       </c>
       <c r="BB109" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="BD109" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BE109" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="BF109" t="n" s="10">
         <v>95.3</v>
@@ -43808,25 +43808,25 @@
         <v>96.4</v>
       </c>
       <c r="BH109" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="BI109" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="BJ109" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BK109" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="BL109" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="BM109" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="BN109" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="BO109" t="n" s="10">
         <v>102.0</v>
@@ -43895,7 +43895,7 @@
         <v>112.0</v>
       </c>
       <c r="CK109" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="CL109" t="n" s="10">
         <v>112.2</v>
@@ -43934,7 +43934,7 @@
         <v>91.8</v>
       </c>
       <c r="CX109" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="CY109" t="n" s="10">
         <v>89.5</v>
@@ -43970,10 +43970,10 @@
         <v>94.1</v>
       </c>
       <c r="DJ109" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="DK109" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DL109" t="n" s="10">
         <v>93.8</v>
@@ -43982,31 +43982,31 @@
         <v>93.6</v>
       </c>
       <c r="DN109" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DO109" t="n" s="10">
         <v>93.3</v>
       </c>
       <c r="DP109" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="DQ109" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="DR109" t="n" s="10">
         <v>93.3</v>
       </c>
-      <c r="DQ109" t="n" s="10">
-        <v>93.3</v>
-      </c>
-      <c r="DR109" t="n" s="10">
-        <v>93.4</v>
-      </c>
       <c r="DS109" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DU109" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DV109" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DW109" t="n" s="10">
         <v>95.0</v>
@@ -44015,7 +44015,7 @@
         <v>95.8</v>
       </c>
       <c r="DY109" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DZ109" t="n" s="10">
         <v>97.0</v>
@@ -44047,7 +44047,7 @@
         <v>34</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="E110" t="n" s="10">
         <v>111.7</v>
@@ -44056,7 +44056,7 @@
         <v>111.5</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="H110" t="n" s="10">
         <v>111.0</v>
@@ -44071,7 +44071,7 @@
         <v>108.3</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="M110" t="n" s="10">
         <v>105.3</v>
@@ -44122,7 +44122,7 @@
         <v>83.2</v>
       </c>
       <c r="AC110" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="AD110" t="n" s="10">
         <v>80.9</v>
@@ -44131,19 +44131,19 @@
         <v>80.2</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AG110" t="n" s="10">
         <v>79.2</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AI110" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AK110" t="n" s="10">
         <v>77.6</v>
@@ -44161,7 +44161,7 @@
         <v>75.6</v>
       </c>
       <c r="AP110" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="AQ110" t="n" s="10">
         <v>73.7</v>
@@ -44185,7 +44185,7 @@
         <v>70.9</v>
       </c>
       <c r="AX110" t="n" s="10">
-        <v>70.7</v>
+        <v>70.6</v>
       </c>
       <c r="AY110" t="n" s="10">
         <v>70.7</v>
@@ -44194,22 +44194,22 @@
         <v>71.1</v>
       </c>
       <c r="BA110" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="BB110" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BC110" t="n" s="10">
         <v>73.2</v>
       </c>
       <c r="BD110" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="BE110" t="n" s="10">
         <v>74.6</v>
       </c>
       <c r="BF110" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BG110" t="n" s="10">
         <v>76.1</v>
@@ -44218,7 +44218,7 @@
         <v>77.0</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="BJ110" t="n" s="10">
         <v>78.9</v>
@@ -44227,10 +44227,10 @@
         <v>79.7</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="BN110" t="n" s="10">
         <v>81.7</v>
@@ -44251,7 +44251,7 @@
         <v>85.7</v>
       </c>
       <c r="BT110" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="BU110" t="n" s="10">
         <v>87.8</v>
@@ -44260,7 +44260,7 @@
         <v>89.3</v>
       </c>
       <c r="BW110" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="BX110" t="n" s="10">
         <v>91.6</v>
@@ -44278,7 +44278,7 @@
         <v>94.6</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="CD110" t="n" s="10">
         <v>95.6</v>
@@ -44320,28 +44320,28 @@
         <v>97.4</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CR110" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="CW110" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="CY110" t="n" s="10">
         <v>77.1</v>
@@ -44362,7 +44362,7 @@
         <v>75.9</v>
       </c>
       <c r="DE110" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="DF110" t="n" s="10">
         <v>77.6</v>
@@ -44380,31 +44380,31 @@
         <v>79.7</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="DM110" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DT110" t="n" s="10">
         <v>85.8</v>
@@ -44413,7 +44413,7 @@
         <v>86.9</v>
       </c>
       <c r="DV110" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="DW110" t="n" s="10">
         <v>88.3</v>
@@ -44440,7 +44440,7 @@
         <v>92.4</v>
       </c>
       <c r="EE110" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="111">
@@ -44906,7 +44906,7 @@
         <v>103.8</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="U112" t="n" s="10">
         <v>101.8</v>
@@ -44936,7 +44936,7 @@
         <v>89.9</v>
       </c>
       <c r="AD112" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="AE112" t="n" s="10">
         <v>88.6</v>
@@ -45080,7 +45080,7 @@
         <v>85.3</v>
       </c>
       <c r="BZ112" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CA112" t="n" s="10">
         <v>87.1</v>
@@ -45140,7 +45140,7 @@
         <v>96.8</v>
       </c>
       <c r="CT112" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CU112" t="n" s="10">
         <v>95.9</v>
@@ -45188,7 +45188,7 @@
         <v>106.3</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="DK112" t="n" s="10">
         <v>105.0</v>
@@ -45212,7 +45212,7 @@
         <v>96.0</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="DS112" t="n" s="10">
         <v>93.6</v>
@@ -45221,7 +45221,7 @@
         <v>92.7</v>
       </c>
       <c r="DU112" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="DV112" t="n" s="10">
         <v>92.1</v>
@@ -45693,7 +45693,7 @@
         <v>89.9</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="M114" t="n" s="10">
         <v>90.0</v>
@@ -45714,7 +45714,7 @@
         <v>90.7</v>
       </c>
       <c r="S114" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="T114" t="n" s="10">
         <v>90.6</v>
@@ -45723,7 +45723,7 @@
         <v>90.4</v>
       </c>
       <c r="V114" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="W114" t="n" s="10">
         <v>89.8</v>
@@ -45795,7 +45795,7 @@
         <v>76.9</v>
       </c>
       <c r="AT114" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="AU114" t="n" s="10">
         <v>75.6</v>
@@ -45837,7 +45837,7 @@
         <v>78.7</v>
       </c>
       <c r="BH114" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="BI114" t="n" s="10">
         <v>79.5</v>
@@ -45894,7 +45894,7 @@
         <v>86.2</v>
       </c>
       <c r="CA114" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CB114" t="n" s="10">
         <v>88.1</v>
@@ -45906,13 +45906,13 @@
         <v>89.9</v>
       </c>
       <c r="CE114" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CF114" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CG114" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="CH114" t="n" s="10">
         <v>92.9</v>
@@ -45966,7 +45966,7 @@
         <v>87.9</v>
       </c>
       <c r="CY114" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CZ114" t="n" s="10">
         <v>88.9</v>
@@ -46023,31 +46023,31 @@
         <v>86.2</v>
       </c>
       <c r="DR114" t="n" s="10">
+        <v>86.2</v>
+      </c>
+      <c r="DS114" t="n" s="10">
         <v>86.3</v>
       </c>
-      <c r="DS114" t="n" s="10">
-        <v>86.4</v>
-      </c>
       <c r="DT114" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="DU114" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="DV114" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DW114" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="DX114" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DY114" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="DZ114" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="EA114" t="n" s="10">
         <v>90.0</v>
@@ -46109,7 +46109,7 @@
         <v>114.8</v>
       </c>
       <c r="P115" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="Q115" t="n" s="10">
         <v>115.3</v>
@@ -46151,13 +46151,13 @@
         <v>109.6</v>
       </c>
       <c r="AD115" t="n" s="10">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="AE115" t="n" s="10">
         <v>108.2</v>
       </c>
       <c r="AF115" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="AG115" t="n" s="10">
         <v>107.1</v>
@@ -46229,7 +46229,7 @@
         <v>95.7</v>
       </c>
       <c r="BD115" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="BE115" t="n" s="10">
         <v>97.1</v>
@@ -46319,7 +46319,7 @@
         <v>102.3</v>
       </c>
       <c r="CH115" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CI115" t="n" s="10">
         <v>102.5</v>
@@ -46376,7 +46376,7 @@
         <v>97.8</v>
       </c>
       <c r="DA115" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="DB115" t="n" s="10">
         <v>99.1</v>
@@ -46492,7 +46492,7 @@
         <v>85.3</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>85.8</v>
@@ -46504,43 +46504,43 @@
         <v>86.0</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="M116" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="N116" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="O116" t="n" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="P116" t="n" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="Q116" t="n" s="10">
         <v>85.6</v>
       </c>
-      <c r="P116" t="n" s="10">
-        <v>85.6</v>
-      </c>
-      <c r="Q116" t="n" s="10">
+      <c r="R116" t="n" s="10">
+        <v>85.4</v>
+      </c>
+      <c r="S116" t="n" s="10">
         <v>85.5</v>
-      </c>
-      <c r="R116" t="n" s="10">
-        <v>85.3</v>
-      </c>
-      <c r="S116" t="n" s="10">
-        <v>85.4</v>
       </c>
       <c r="T116" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="U116" t="n" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="V116" t="n" s="10">
+        <v>85.9</v>
+      </c>
+      <c r="W116" t="n" s="10">
+        <v>85.9</v>
+      </c>
+      <c r="X116" t="n" s="10">
         <v>85.7</v>
-      </c>
-      <c r="V116" t="n" s="10">
-        <v>85.8</v>
-      </c>
-      <c r="W116" t="n" s="10">
-        <v>85.8</v>
-      </c>
-      <c r="X116" t="n" s="10">
-        <v>85.6</v>
       </c>
       <c r="Y116" t="n" s="10">
         <v>85.4</v>
@@ -46552,13 +46552,13 @@
         <v>84.3</v>
       </c>
       <c r="AB116" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="AC116" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="AD116" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="AE116" t="n" s="10">
         <v>81.1</v>
@@ -46567,7 +46567,7 @@
         <v>80.4</v>
       </c>
       <c r="AG116" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="AH116" t="n" s="10">
         <v>79.9</v>
@@ -46582,7 +46582,7 @@
         <v>78.9</v>
       </c>
       <c r="AL116" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="AM116" t="n" s="10">
         <v>78.6</v>
@@ -46597,16 +46597,16 @@
         <v>78.5</v>
       </c>
       <c r="AQ116" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="AR116" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="AS116" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="AT116" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AU116" t="n" s="10">
         <v>75.4</v>
@@ -46615,40 +46615,40 @@
         <v>75.1</v>
       </c>
       <c r="AW116" t="n" s="10">
+        <v>74.7</v>
+      </c>
+      <c r="AX116" t="n" s="10">
+        <v>74.4</v>
+      </c>
+      <c r="AY116" t="n" s="10">
+        <v>74.5</v>
+      </c>
+      <c r="AZ116" t="n" s="10">
         <v>74.8</v>
       </c>
-      <c r="AX116" t="n" s="10">
-        <v>74.5</v>
-      </c>
-      <c r="AY116" t="n" s="10">
-        <v>74.6</v>
-      </c>
-      <c r="AZ116" t="n" s="10">
-        <v>74.9</v>
-      </c>
       <c r="BA116" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BB116" t="n" s="10">
         <v>75.9</v>
       </c>
       <c r="BC116" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BD116" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="BE116" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="BF116" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BG116" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BH116" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="BI116" t="n" s="10">
         <v>81.1</v>
@@ -46657,7 +46657,7 @@
         <v>81.9</v>
       </c>
       <c r="BK116" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="BL116" t="n" s="10">
         <v>83.0</v>
@@ -46666,19 +46666,19 @@
         <v>83.2</v>
       </c>
       <c r="BN116" t="n" s="10">
+        <v>83.3</v>
+      </c>
+      <c r="BO116" t="n" s="10">
         <v>83.4</v>
       </c>
-      <c r="BO116" t="n" s="10">
-        <v>83.5</v>
-      </c>
       <c r="BP116" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BQ116" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="BR116" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="BS116" t="n" s="10">
         <v>84.9</v>
@@ -46690,94 +46690,94 @@
         <v>85.6</v>
       </c>
       <c r="BV116" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="BW116" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="BX116" t="n" s="10">
+        <v>87.2</v>
+      </c>
+      <c r="BY116" t="n" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="BZ116" t="n" s="10">
+        <v>88.5</v>
+      </c>
+      <c r="CA116" t="n" s="10">
+        <v>89.3</v>
+      </c>
+      <c r="CB116" t="n" s="10">
+        <v>90.1</v>
+      </c>
+      <c r="CC116" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="CD116" t="n" s="10">
+        <v>92.4</v>
+      </c>
+      <c r="CE116" t="n" s="10">
+        <v>93.5</v>
+      </c>
+      <c r="CF116" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="CG116" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="CH116" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="CI116" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="CJ116" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="CK116" t="n" s="10">
+        <v>93.0</v>
+      </c>
+      <c r="CL116" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="CM116" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="CN116" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="CO116" t="n" s="10">
+        <v>87.3</v>
+      </c>
+      <c r="CP116" t="n" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="CQ116" t="n" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="CR116" t="n" s="10">
+        <v>86.1</v>
+      </c>
+      <c r="CS116" t="n" s="10">
         <v>87.0</v>
       </c>
-      <c r="BY116" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="BZ116" t="n" s="10">
-        <v>88.2</v>
-      </c>
-      <c r="CA116" t="n" s="10">
-        <v>89.0</v>
-      </c>
-      <c r="CB116" t="n" s="10">
-        <v>89.8</v>
-      </c>
-      <c r="CC116" t="n" s="10">
-        <v>90.8</v>
-      </c>
-      <c r="CD116" t="n" s="10">
-        <v>92.0</v>
-      </c>
-      <c r="CE116" t="n" s="10">
-        <v>93.1</v>
-      </c>
-      <c r="CF116" t="n" s="10">
+      <c r="CT116" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="CU116" t="n" s="10">
+        <v>90.1</v>
+      </c>
+      <c r="CV116" t="n" s="10">
+        <v>91.9</v>
+      </c>
+      <c r="CW116" t="n" s="10">
         <v>94.0</v>
       </c>
-      <c r="CG116" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="CH116" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="CI116" t="n" s="10">
-        <v>94.1</v>
-      </c>
-      <c r="CJ116" t="n" s="10">
-        <v>93.7</v>
-      </c>
-      <c r="CK116" t="n" s="10">
-        <v>92.8</v>
-      </c>
-      <c r="CL116" t="n" s="10">
-        <v>91.5</v>
-      </c>
-      <c r="CM116" t="n" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="CN116" t="n" s="10">
-        <v>88.4</v>
-      </c>
-      <c r="CO116" t="n" s="10">
-        <v>87.1</v>
-      </c>
-      <c r="CP116" t="n" s="10">
-        <v>86.1</v>
-      </c>
-      <c r="CQ116" t="n" s="10">
-        <v>85.6</v>
-      </c>
-      <c r="CR116" t="n" s="10">
-        <v>85.9</v>
-      </c>
-      <c r="CS116" t="n" s="10">
-        <v>86.8</v>
-      </c>
-      <c r="CT116" t="n" s="10">
-        <v>88.1</v>
-      </c>
-      <c r="CU116" t="n" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="CV116" t="n" s="10">
-        <v>91.8</v>
-      </c>
-      <c r="CW116" t="n" s="10">
-        <v>93.9</v>
-      </c>
       <c r="CX116" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CY116" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="CZ116" t="n" s="10">
         <v>99.3</v>
@@ -46789,7 +46789,7 @@
         <v>100.2</v>
       </c>
       <c r="DC116" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="DD116" t="n" s="10">
         <v>99.3</v>
@@ -46819,7 +46819,7 @@
         <v>89.4</v>
       </c>
       <c r="DM116" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="DN116" t="n" s="10">
         <v>88.1</v>
@@ -46828,40 +46828,40 @@
         <v>87.8</v>
       </c>
       <c r="DP116" t="n" s="10">
+        <v>87.4</v>
+      </c>
+      <c r="DQ116" t="n" s="10">
+        <v>87.3</v>
+      </c>
+      <c r="DR116" t="n" s="10">
+        <v>87.3</v>
+      </c>
+      <c r="DS116" t="n" s="10">
         <v>87.5</v>
       </c>
-      <c r="DQ116" t="n" s="10">
+      <c r="DT116" t="n" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="DU116" t="n" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="DV116" t="n" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="DW116" t="n" s="10">
         <v>87.4</v>
       </c>
-      <c r="DR116" t="n" s="10">
+      <c r="DX116" t="n" s="10">
+        <v>87.3</v>
+      </c>
+      <c r="DY116" t="n" s="10">
         <v>87.5</v>
-      </c>
-      <c r="DS116" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="DT116" t="n" s="10">
-        <v>87.7</v>
-      </c>
-      <c r="DU116" t="n" s="10">
-        <v>87.7</v>
-      </c>
-      <c r="DV116" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="DW116" t="n" s="10">
-        <v>87.5</v>
-      </c>
-      <c r="DX116" t="n" s="10">
-        <v>87.4</v>
-      </c>
-      <c r="DY116" t="n" s="10">
-        <v>87.6</v>
       </c>
       <c r="DZ116" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="EA116" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="EB116" t="n" s="10">
         <v>89.6</v>
@@ -46870,7 +46870,7 @@
         <v>90.4</v>
       </c>
       <c r="ED116" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="EE116" t="n" s="10">
         <v>91.8</v>
@@ -46938,7 +46938,7 @@
         <v>110.2</v>
       </c>
       <c r="V117" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="W117" t="n" s="10">
         <v>110.4</v>
@@ -46974,7 +46974,7 @@
         <v>103.3</v>
       </c>
       <c r="AH117" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="AI117" t="n" s="10">
         <v>102.5</v>
@@ -47025,7 +47025,7 @@
         <v>96.3</v>
       </c>
       <c r="AY117" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="AZ117" t="n" s="10">
         <v>96.7</v>
@@ -47034,7 +47034,7 @@
         <v>97.2</v>
       </c>
       <c r="BB117" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="BC117" t="n" s="10">
         <v>99.2</v>
@@ -47055,7 +47055,7 @@
         <v>103.8</v>
       </c>
       <c r="BI117" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="BJ117" t="n" s="10">
         <v>105.0</v>
@@ -47070,7 +47070,7 @@
         <v>105.4</v>
       </c>
       <c r="BN117" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="BO117" t="n" s="10">
         <v>104.9</v>
@@ -47088,7 +47088,7 @@
         <v>105.2</v>
       </c>
       <c r="BT117" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="BU117" t="n" s="10">
         <v>105.4</v>
@@ -47103,7 +47103,7 @@
         <v>105.8</v>
       </c>
       <c r="BY117" t="n" s="10">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="BZ117" t="n" s="10">
         <v>106.5</v>
@@ -47115,7 +47115,7 @@
         <v>107.8</v>
       </c>
       <c r="CC117" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="CD117" t="n" s="10">
         <v>110.0</v>
@@ -47175,7 +47175,7 @@
         <v>103.4</v>
       </c>
       <c r="CW117" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="CX117" t="n" s="10">
         <v>107.8</v>
@@ -47202,7 +47202,7 @@
         <v>110.0</v>
       </c>
       <c r="DF117" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="DG117" t="n" s="10">
         <v>107.3</v>
@@ -47214,7 +47214,7 @@
         <v>103.9</v>
       </c>
       <c r="DJ117" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="DK117" t="n" s="10">
         <v>100.7</v>
@@ -47232,10 +47232,10 @@
         <v>97.8</v>
       </c>
       <c r="DP117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DQ117" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DR117" t="n" s="10">
         <v>97.0</v>
@@ -47253,7 +47253,7 @@
         <v>96.2</v>
       </c>
       <c r="DW117" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DX117" t="n" s="10">
         <v>95.5</v>
@@ -47306,7 +47306,7 @@
         <v>92.1</v>
       </c>
       <c r="I118" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="J118" t="n" s="10">
         <v>92.2</v>
@@ -47363,7 +47363,7 @@
         <v>88.7</v>
       </c>
       <c r="AB118" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="AC118" t="n" s="10">
         <v>87.5</v>
@@ -47420,7 +47420,7 @@
         <v>76.3</v>
       </c>
       <c r="AU118" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="AV118" t="n" s="10">
         <v>75.4</v>
@@ -47468,7 +47468,7 @@
         <v>78.9</v>
       </c>
       <c r="BK118" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="BL118" t="n" s="10">
         <v>78.9</v>
@@ -47477,7 +47477,7 @@
         <v>78.8</v>
       </c>
       <c r="BN118" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="BO118" t="n" s="10">
         <v>78.8</v>
@@ -47495,7 +47495,7 @@
         <v>80.3</v>
       </c>
       <c r="BT118" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="BU118" t="n" s="10">
         <v>81.4</v>
@@ -47510,7 +47510,7 @@
         <v>83.3</v>
       </c>
       <c r="BY118" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="BZ118" t="n" s="10">
         <v>84.7</v>
@@ -47534,10 +47534,10 @@
         <v>88.2</v>
       </c>
       <c r="CG118" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="CH118" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="CI118" t="n" s="10">
         <v>88.3</v>
@@ -47651,7 +47651,7 @@
         <v>85.7</v>
       </c>
       <c r="DT118" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="DU118" t="n" s="10">
         <v>86.6</v>
@@ -47681,7 +47681,7 @@
         <v>91.8</v>
       </c>
       <c r="ED118" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="EE118" t="n" s="10">
         <v>92.7</v>
@@ -47719,7 +47719,7 @@
         <v>116.5</v>
       </c>
       <c r="L119" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="M119" t="n" s="10">
         <v>116.8</v>
@@ -48159,7 +48159,7 @@
         <v>82.0</v>
       </c>
       <c r="W120" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="X120" t="n" s="10">
         <v>81.4</v>
@@ -48234,7 +48234,7 @@
         <v>65.6</v>
       </c>
       <c r="AV120" t="n" s="10">
-        <v>65.4</v>
+        <v>65.3</v>
       </c>
       <c r="AW120" t="n" s="10">
         <v>65.0</v>
@@ -48264,7 +48264,7 @@
         <v>65.5</v>
       </c>
       <c r="BF120" t="n" s="10">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="BG120" t="n" s="10">
         <v>66.2</v>
@@ -48276,7 +48276,7 @@
         <v>67.6</v>
       </c>
       <c r="BJ120" t="n" s="10">
-        <v>68.5</v>
+        <v>68.4</v>
       </c>
       <c r="BK120" t="n" s="10">
         <v>69.2</v>
@@ -48303,7 +48303,7 @@
         <v>75.6</v>
       </c>
       <c r="BS120" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="BT120" t="n" s="10">
         <v>77.6</v>
@@ -48435,7 +48435,7 @@
         <v>82.0</v>
       </c>
       <c r="DK120" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="DL120" t="n" s="10">
         <v>82.5</v>
@@ -48453,19 +48453,19 @@
         <v>85.5</v>
       </c>
       <c r="DQ120" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="DR120" t="n" s="10">
         <v>87.3</v>
       </c>
       <c r="DS120" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="DT120" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="DU120" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="DV120" t="n" s="10">
         <v>91.0</v>
@@ -48477,7 +48477,7 @@
         <v>91.9</v>
       </c>
       <c r="DY120" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DZ120" t="n" s="10">
         <v>92.8</v>
@@ -48486,7 +48486,7 @@
         <v>93.1</v>
       </c>
       <c r="EB120" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="EC120" t="n" s="10">
         <v>93.1</v>
@@ -49030,7 +49030,7 @@
         <v>92.8</v>
       </c>
       <c r="AQ122" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="AR122" t="n" s="10">
         <v>92.0</v>
@@ -49066,13 +49066,13 @@
         <v>87.6</v>
       </c>
       <c r="BC122" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="BD122" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="BE122" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="BF122" t="n" s="10">
         <v>88.7</v>
@@ -49156,7 +49156,7 @@
         <v>93.1</v>
       </c>
       <c r="CG122" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CH122" t="n" s="10">
         <v>94.1</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:04:27&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:59:38&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>